--- a/onboarding/scopes-services-settings.xlsx
+++ b/onboarding/scopes-services-settings.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bitventurecom-my.sharepoint.com/personal/shaunk_bitventure_co_za/Documents/Documents/work-files/html-files/htmltools/onboarding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{651BEF53-814D-4DFA-8372-18E058EAD150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{651BEF53-814D-4DFA-8372-18E058EAD150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FCAF9BE-E965-48B9-A0F8-81C3AF338783}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9A1E885F-9A9C-4645-BF91-C61EEEC6D5BE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9A1E885F-9A9C-4645-BF91-C61EEEC6D5BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
+    <sheet name="BVLFS" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet3!$N$1:$Z$900</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8219" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8367" uniqueCount="324">
   <si>
     <t>Scope/Entity</t>
   </si>
@@ -985,13 +986,48 @@
   <si>
     <t>https://api.bitventure.co.za/demo/api/Webhook/VerifyMe/</t>
   </si>
+  <si>
+    <t>Entity Service</t>
+  </si>
+  <si>
+    <t>BVLWS</t>
+  </si>
+  <si>
+    <t>cd2f8ca60d17d549dee21629eab36ace894c0feebc06ee2ff7c0b65cab704e40</t>
+  </si>
+  <si>
+    <t>https://easyloans.co.za/1013/api/Payments/status/update</t>
+  </si>
+  <si>
+    <t>Entity Service Type</t>
+  </si>
+  <si>
+    <t>BVL Financial Service</t>
+  </si>
+  <si>
+    <t>BVLFS</t>
+  </si>
+  <si>
+    <t>[{"gc": "BVLFS", "map": "BVLFS"}]</t>
+  </si>
+  <si>
+    <t>{"tracking": true, "frequency": "MONTHLY", "mandateType": "Usage", "adjustmentType": "RATE", "adjustmentValue": "1", "referenceFormat": "BVLFSDC_******", "adjustmentFrequency": "ANUALLY", "debitClassification": "LRM", "generateInstallment": true, "calculateInstallment": false, "dateAdjustmentAllowed": "Y", "maximumInstallmentAmount": "10000", "generateContractReference": true, "scheme" : "BVLFS"}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -1019,8 +1055,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1377,10 +1414,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB18706D-E61C-4CA4-9160-23DF4570D40E}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Z900"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="S117" sqref="S117"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Y507" sqref="Y507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,7 +1477,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>COUNTIF($P2:P$2,P2)</f>
         <v>1</v>
@@ -1512,7 +1550,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>COUNTIF($P$2:P3,P3)</f>
         <v>2</v>
@@ -1585,7 +1623,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>COUNTIF($P$2:P4,P4)</f>
         <v>3</v>
@@ -1658,7 +1696,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>COUNTIF($P$2:P5,P5)</f>
         <v>4</v>
@@ -1731,7 +1769,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>COUNTIF($P$2:P6,P6)</f>
         <v>1</v>
@@ -1816,7 +1854,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>COUNTIF($P$2:P7,P7)</f>
         <v>2</v>
@@ -1901,7 +1939,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>COUNTIF($P$2:P8,P8)</f>
         <v>3</v>
@@ -1986,7 +2024,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>COUNTIF($P$2:P9,P9)</f>
         <v>4</v>
@@ -2071,7 +2109,7 @@
         <v>4831</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>COUNTIF($P$2:P10,P10)</f>
         <v>5</v>
@@ -2156,7 +2194,7 @@
         <v>4831</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>COUNTIF($P$2:P11,P11)</f>
         <v>6</v>
@@ -2241,7 +2279,7 @@
         <v>4831</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>COUNTIF($P$2:P12,P12)</f>
         <v>7</v>
@@ -2326,7 +2364,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>COUNTIF($P$2:P13,P13)</f>
         <v>8</v>
@@ -2399,7 +2437,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>COUNTIF($P$2:P14,P14)</f>
         <v>9</v>
@@ -2472,7 +2510,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>COUNTIF($P$2:P15,P15)</f>
         <v>10</v>
@@ -2545,7 +2583,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>COUNTIF($P$2:P16,P16)</f>
         <v>11</v>
@@ -2618,7 +2656,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>COUNTIF($P$2:P17,P17)</f>
         <v>12</v>
@@ -2691,7 +2729,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>COUNTIF($P$2:P18,P18)</f>
         <v>13</v>
@@ -2764,7 +2802,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>COUNTIF($P$2:P19,P19)</f>
         <v>14</v>
@@ -2837,7 +2875,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>COUNTIF($P$2:P20,P20)</f>
         <v>15</v>
@@ -2910,7 +2948,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>COUNTIF($P$2:P21,P21)</f>
         <v>16</v>
@@ -2983,7 +3021,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>COUNTIF($P$2:P22,P22)</f>
         <v>17</v>
@@ -3056,7 +3094,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>COUNTIF($P$2:P23,P23)</f>
         <v>1</v>
@@ -3141,7 +3179,7 @@
         <v>4833</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>COUNTIF($P$2:P24,P24)</f>
         <v>2</v>
@@ -3214,7 +3252,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>COUNTIF($P$2:P25,P25)</f>
         <v>3</v>
@@ -3287,7 +3325,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>COUNTIF($P$2:P26,P26)</f>
         <v>4</v>
@@ -3360,7 +3398,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>COUNTIF($P$2:P27,P27)</f>
         <v>5</v>
@@ -3433,7 +3471,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>COUNTIF($P$2:P28,P28)</f>
         <v>6</v>
@@ -3506,7 +3544,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>COUNTIF($P$2:P29,P29)</f>
         <v>7</v>
@@ -3579,7 +3617,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>COUNTIF($P$2:P30,P30)</f>
         <v>8</v>
@@ -3652,7 +3690,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>COUNTIF($P$2:P31,P31)</f>
         <v>9</v>
@@ -3725,7 +3763,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>COUNTIF($P$2:P32,P32)</f>
         <v>1</v>
@@ -3798,7 +3836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>COUNTIF($P$2:P33,P33)</f>
         <v>2</v>
@@ -3871,7 +3909,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>COUNTIF($P$2:P34,P34)</f>
         <v>3</v>
@@ -3944,7 +3982,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>COUNTIF($P$2:P35,P35)</f>
         <v>4</v>
@@ -4017,7 +4055,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>COUNTIF($P$2:P36,P36)</f>
         <v>5</v>
@@ -4090,7 +4128,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>COUNTIF($P$2:P37,P37)</f>
         <v>6</v>
@@ -4163,7 +4201,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <f>COUNTIF($P$2:P38,P38)</f>
         <v>7</v>
@@ -4236,7 +4274,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>COUNTIF($P$2:P39,P39)</f>
         <v>8</v>
@@ -4309,7 +4347,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>COUNTIF($P$2:P40,P40)</f>
         <v>9</v>
@@ -4382,7 +4420,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <f>COUNTIF($P$2:P41,P41)</f>
         <v>10</v>
@@ -4455,7 +4493,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <f>COUNTIF($P$2:P42,P42)</f>
         <v>1</v>
@@ -4540,7 +4578,7 @@
         <v>3972</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <f>COUNTIF($P$2:P43,P43)</f>
         <v>2</v>
@@ -4625,7 +4663,7 @@
         <v>3972</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <f>COUNTIF($P$2:P44,P44)</f>
         <v>3</v>
@@ -4710,7 +4748,7 @@
         <v>3971</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <f>COUNTIF($P$2:P45,P45)</f>
         <v>4</v>
@@ -4795,7 +4833,7 @@
         <v>3971</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <f>COUNTIF($P$2:P46,P46)</f>
         <v>5</v>
@@ -4880,7 +4918,7 @@
         <v>3970</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <f>COUNTIF($P$2:P47,P47)</f>
         <v>6</v>
@@ -4965,7 +5003,7 @@
         <v>3970</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <f>COUNTIF($P$2:P48,P48)</f>
         <v>7</v>
@@ -5050,7 +5088,7 @@
         <v>3969</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <f>COUNTIF($P$2:P49,P49)</f>
         <v>8</v>
@@ -5135,7 +5173,7 @@
         <v>3969</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <f>COUNTIF($P$2:P50,P50)</f>
         <v>9</v>
@@ -5208,7 +5246,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <f>COUNTIF($P$2:P51,P51)</f>
         <v>10</v>
@@ -5281,7 +5319,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>COUNTIF($P$2:P52,P52)</f>
         <v>11</v>
@@ -5354,7 +5392,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <f>COUNTIF($P$2:P53,P53)</f>
         <v>12</v>
@@ -5427,7 +5465,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <f>COUNTIF($P$2:P54,P54)</f>
         <v>13</v>
@@ -5500,7 +5538,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <f>COUNTIF($P$2:P55,P55)</f>
         <v>14</v>
@@ -5573,7 +5611,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <f>COUNTIF($P$2:P56,P56)</f>
         <v>1</v>
@@ -5658,7 +5696,7 @@
         <v>5059</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <f>COUNTIF($P$2:P57,P57)</f>
         <v>2</v>
@@ -5743,7 +5781,7 @@
         <v>5058</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <f>COUNTIF($P$2:P58,P58)</f>
         <v>3</v>
@@ -5828,7 +5866,7 @@
         <v>5057</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <f>COUNTIF($P$2:P59,P59)</f>
         <v>4</v>
@@ -5913,7 +5951,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <f>COUNTIF($P$2:P60,P60)</f>
         <v>5</v>
@@ -5998,7 +6036,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <f>COUNTIF($P$2:P61,P61)</f>
         <v>6</v>
@@ -6083,7 +6121,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <f>COUNTIF($P$2:P62,P62)</f>
         <v>7</v>
@@ -6168,7 +6206,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <f>COUNTIF($P$2:P63,P63)</f>
         <v>8</v>
@@ -6241,7 +6279,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <f>COUNTIF($P$2:P64,P64)</f>
         <v>9</v>
@@ -6314,7 +6352,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <f>COUNTIF($P$2:P65,P65)</f>
         <v>10</v>
@@ -6387,7 +6425,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <f>COUNTIF($P$2:P66,P66)</f>
         <v>11</v>
@@ -6460,7 +6498,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <f>COUNTIF($P$2:P67,P67)</f>
         <v>12</v>
@@ -6533,7 +6571,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <f>COUNTIF($P$2:P68,P68)</f>
         <v>13</v>
@@ -6606,7 +6644,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <f>COUNTIF($P$2:P69,P69)</f>
         <v>14</v>
@@ -6679,7 +6717,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <f>COUNTIF($P$2:P70,P70)</f>
         <v>15</v>
@@ -6752,7 +6790,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <f>COUNTIF($P$2:P71,P71)</f>
         <v>16</v>
@@ -6825,7 +6863,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <f>COUNTIF($P$2:P72,P72)</f>
         <v>17</v>
@@ -6898,7 +6936,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <f>COUNTIF($P$2:P73,P73)</f>
         <v>18</v>
@@ -6971,7 +7009,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <f>COUNTIF($P$2:P74,P74)</f>
         <v>19</v>
@@ -7044,7 +7082,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <f>COUNTIF($P$2:P75,P75)</f>
         <v>1</v>
@@ -7117,7 +7155,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <f>COUNTIF($P$2:P76,P76)</f>
         <v>2</v>
@@ -7190,7 +7228,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <f>COUNTIF($P$2:P77,P77)</f>
         <v>3</v>
@@ -7263,7 +7301,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <f>COUNTIF($P$2:P78,P78)</f>
         <v>4</v>
@@ -7336,7 +7374,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <f>COUNTIF($P$2:P79,P79)</f>
         <v>5</v>
@@ -7409,7 +7447,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <f>COUNTIF($P$2:P80,P80)</f>
         <v>6</v>
@@ -7482,7 +7520,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <f>COUNTIF($P$2:P81,P81)</f>
         <v>7</v>
@@ -7555,7 +7593,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <f>COUNTIF($P$2:P82,P82)</f>
         <v>8</v>
@@ -7628,7 +7666,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <f>COUNTIF($P$2:P83,P83)</f>
         <v>9</v>
@@ -7701,7 +7739,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <f>COUNTIF($P$2:P84,P84)</f>
         <v>10</v>
@@ -7774,7 +7812,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <f>COUNTIF($P$2:P85,P85)</f>
         <v>11</v>
@@ -7847,7 +7885,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <f>COUNTIF($P$2:P86,P86)</f>
         <v>12</v>
@@ -7920,7 +7958,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <f>COUNTIF($P$2:P87,P87)</f>
         <v>13</v>
@@ -7993,7 +8031,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <f>COUNTIF($P$2:P88,P88)</f>
         <v>14</v>
@@ -8066,7 +8104,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <f>COUNTIF($P$2:P89,P89)</f>
         <v>15</v>
@@ -8139,7 +8177,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <f>COUNTIF($P$2:P90,P90)</f>
         <v>16</v>
@@ -8212,7 +8250,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <f>COUNTIF($P$2:P91,P91)</f>
         <v>1</v>
@@ -8285,7 +8323,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <f>COUNTIF($P$2:P92,P92)</f>
         <v>2</v>
@@ -8358,7 +8396,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <f>COUNTIF($P$2:P93,P93)</f>
         <v>3</v>
@@ -8431,7 +8469,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <f>COUNTIF($P$2:P94,P94)</f>
         <v>4</v>
@@ -8504,7 +8542,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <f>COUNTIF($P$2:P95,P95)</f>
         <v>5</v>
@@ -8577,7 +8615,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <f>COUNTIF($P$2:P96,P96)</f>
         <v>6</v>
@@ -8650,7 +8688,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <f>COUNTIF($P$2:P97,P97)</f>
         <v>1</v>
@@ -8723,7 +8761,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <f>COUNTIF($P$2:P98,P98)</f>
         <v>2</v>
@@ -8796,7 +8834,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <f>COUNTIF($P$2:P99,P99)</f>
         <v>3</v>
@@ -8869,7 +8907,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <f>COUNTIF($P$2:P100,P100)</f>
         <v>4</v>
@@ -8942,7 +8980,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <f>COUNTIF($P$2:P101,P101)</f>
         <v>1</v>
@@ -9027,7 +9065,7 @@
         <v>5043</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <f>COUNTIF($P$2:P102,P102)</f>
         <v>2</v>
@@ -9100,7 +9138,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <f>COUNTIF($P$2:P103,P103)</f>
         <v>3</v>
@@ -9173,7 +9211,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <f>COUNTIF($P$2:P104,P104)</f>
         <v>4</v>
@@ -9246,7 +9284,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <f>COUNTIF($P$2:P105,P105)</f>
         <v>5</v>
@@ -9319,7 +9357,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <f>COUNTIF($P$2:P106,P106)</f>
         <v>6</v>
@@ -9392,7 +9430,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <f>COUNTIF($P$2:P107,P107)</f>
         <v>7</v>
@@ -9465,7 +9503,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <f>COUNTIF($P$2:P108,P108)</f>
         <v>8</v>
@@ -9538,7 +9576,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <f>COUNTIF($P$2:P109,P109)</f>
         <v>9</v>
@@ -9611,7 +9649,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <f>COUNTIF($P$2:P110,P110)</f>
         <v>10</v>
@@ -9684,7 +9722,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <f>COUNTIF($P$2:P111,P111)</f>
         <v>11</v>
@@ -9757,7 +9795,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <f>COUNTIF($P$2:P112,P112)</f>
         <v>12</v>
@@ -9830,7 +9868,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <f>COUNTIF($P$2:P113,P113)</f>
         <v>13</v>
@@ -9903,7 +9941,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <f>COUNTIF($P$2:P114,P114)</f>
         <v>14</v>
@@ -9976,7 +10014,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <f>COUNTIF($P$2:P115,P115)</f>
         <v>15</v>
@@ -10049,7 +10087,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <f>COUNTIF($P$2:P116,P116)</f>
         <v>16</v>
@@ -10122,7 +10160,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <f>COUNTIF($P$2:P117,P117)</f>
         <v>17</v>
@@ -10207,7 +10245,7 @@
         <v>5043</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <f>COUNTIF($P$2:P118,P118)</f>
         <v>18</v>
@@ -10280,7 +10318,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <f>COUNTIF($P$2:P119,P119)</f>
         <v>19</v>
@@ -10353,7 +10391,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <f>COUNTIF($P$2:P120,P120)</f>
         <v>20</v>
@@ -10426,7 +10464,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <f>COUNTIF($P$2:P121,P121)</f>
         <v>21</v>
@@ -10499,7 +10537,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <f>COUNTIF($P$2:P122,P122)</f>
         <v>22</v>
@@ -10572,7 +10610,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <f>COUNTIF($P$2:P123,P123)</f>
         <v>23</v>
@@ -10645,7 +10683,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <f>COUNTIF($P$2:P124,P124)</f>
         <v>24</v>
@@ -10718,7 +10756,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <f>COUNTIF($P$2:P125,P125)</f>
         <v>25</v>
@@ -10791,7 +10829,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <f>COUNTIF($P$2:P126,P126)</f>
         <v>26</v>
@@ -10864,7 +10902,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <f>COUNTIF($P$2:P127,P127)</f>
         <v>27</v>
@@ -10937,7 +10975,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <f>COUNTIF($P$2:P128,P128)</f>
         <v>28</v>
@@ -11010,7 +11048,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <f>COUNTIF($P$2:P129,P129)</f>
         <v>29</v>
@@ -11083,7 +11121,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <f>COUNTIF($P$2:P130,P130)</f>
         <v>30</v>
@@ -11156,7 +11194,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <f>COUNTIF($P$2:P131,P131)</f>
         <v>31</v>
@@ -11229,7 +11267,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <f>COUNTIF($P$2:P132,P132)</f>
         <v>1</v>
@@ -11302,7 +11340,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <f>COUNTIF($P$2:P133,P133)</f>
         <v>2</v>
@@ -11375,7 +11413,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <f>COUNTIF($P$2:P134,P134)</f>
         <v>3</v>
@@ -11448,7 +11486,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <f>COUNTIF($P$2:P135,P135)</f>
         <v>4</v>
@@ -11521,7 +11559,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <f>COUNTIF($P$2:P136,P136)</f>
         <v>5</v>
@@ -11594,7 +11632,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <f>COUNTIF($P$2:P137,P137)</f>
         <v>6</v>
@@ -11667,7 +11705,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <f>COUNTIF($P$2:P138,P138)</f>
         <v>7</v>
@@ -11740,7 +11778,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <f>COUNTIF($P$2:P139,P139)</f>
         <v>8</v>
@@ -11813,7 +11851,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <f>COUNTIF($P$2:P140,P140)</f>
         <v>1</v>
@@ -11898,7 +11936,7 @@
         <v>3378</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <f>COUNTIF($P$2:P141,P141)</f>
         <v>2</v>
@@ -11983,7 +12021,7 @@
         <v>3378</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <f>COUNTIF($P$2:P142,P142)</f>
         <v>3</v>
@@ -12068,7 +12106,7 @@
         <v>3377</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <f>COUNTIF($P$2:P143,P143)</f>
         <v>4</v>
@@ -12153,7 +12191,7 @@
         <v>3377</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <f>COUNTIF($P$2:P144,P144)</f>
         <v>5</v>
@@ -12238,7 +12276,7 @@
         <v>3376</v>
       </c>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <f>COUNTIF($P$2:P145,P145)</f>
         <v>6</v>
@@ -12323,7 +12361,7 @@
         <v>3376</v>
       </c>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <f>COUNTIF($P$2:P146,P146)</f>
         <v>7</v>
@@ -12408,7 +12446,7 @@
         <v>5018</v>
       </c>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <f>COUNTIF($P$2:P147,P147)</f>
         <v>8</v>
@@ -12493,7 +12531,7 @@
         <v>5018</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <f>COUNTIF($P$2:P148,P148)</f>
         <v>9</v>
@@ -12578,7 +12616,7 @@
         <v>5018</v>
       </c>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <f>COUNTIF($P$2:P149,P149)</f>
         <v>10</v>
@@ -12663,7 +12701,7 @@
         <v>4830</v>
       </c>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <f>COUNTIF($P$2:P150,P150)</f>
         <v>11</v>
@@ -12748,7 +12786,7 @@
         <v>4830</v>
       </c>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <f>COUNTIF($P$2:P151,P151)</f>
         <v>12</v>
@@ -12833,7 +12871,7 @@
         <v>4830</v>
       </c>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <f>COUNTIF($P$2:P152,P152)</f>
         <v>13</v>
@@ -12906,7 +12944,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <f>COUNTIF($P$2:P153,P153)</f>
         <v>14</v>
@@ -12979,7 +13017,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <f>COUNTIF($P$2:P154,P154)</f>
         <v>15</v>
@@ -13052,7 +13090,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <f>COUNTIF($P$2:P155,P155)</f>
         <v>16</v>
@@ -13125,7 +13163,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <f>COUNTIF($P$2:P156,P156)</f>
         <v>17</v>
@@ -13198,7 +13236,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <f>COUNTIF($P$2:P157,P157)</f>
         <v>18</v>
@@ -13271,7 +13309,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <f>COUNTIF($P$2:P158,P158)</f>
         <v>19</v>
@@ -13344,7 +13382,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <f>COUNTIF($P$2:P159,P159)</f>
         <v>20</v>
@@ -13417,7 +13455,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <f>COUNTIF($P$2:P160,P160)</f>
         <v>21</v>
@@ -13490,7 +13528,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <f>COUNTIF($P$2:P161,P161)</f>
         <v>22</v>
@@ -13575,7 +13613,7 @@
         <v>3378</v>
       </c>
     </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <f>COUNTIF($P$2:P162,P162)</f>
         <v>23</v>
@@ -13660,7 +13698,7 @@
         <v>3378</v>
       </c>
     </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <f>COUNTIF($P$2:P163,P163)</f>
         <v>24</v>
@@ -13745,7 +13783,7 @@
         <v>3377</v>
       </c>
     </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <f>COUNTIF($P$2:P164,P164)</f>
         <v>25</v>
@@ -13830,7 +13868,7 @@
         <v>3377</v>
       </c>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <f>COUNTIF($P$2:P165,P165)</f>
         <v>26</v>
@@ -13915,7 +13953,7 @@
         <v>3376</v>
       </c>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <f>COUNTIF($P$2:P166,P166)</f>
         <v>27</v>
@@ -14000,7 +14038,7 @@
         <v>3376</v>
       </c>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <f>COUNTIF($P$2:P167,P167)</f>
         <v>28</v>
@@ -14085,7 +14123,7 @@
         <v>5018</v>
       </c>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <f>COUNTIF($P$2:P168,P168)</f>
         <v>29</v>
@@ -14170,7 +14208,7 @@
         <v>5018</v>
       </c>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <f>COUNTIF($P$2:P169,P169)</f>
         <v>30</v>
@@ -14255,7 +14293,7 @@
         <v>5018</v>
       </c>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <f>COUNTIF($P$2:P170,P170)</f>
         <v>31</v>
@@ -14340,7 +14378,7 @@
         <v>4830</v>
       </c>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <f>COUNTIF($P$2:P171,P171)</f>
         <v>32</v>
@@ -14425,7 +14463,7 @@
         <v>4830</v>
       </c>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <f>COUNTIF($P$2:P172,P172)</f>
         <v>33</v>
@@ -14510,7 +14548,7 @@
         <v>4830</v>
       </c>
     </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <f>COUNTIF($P$2:P173,P173)</f>
         <v>34</v>
@@ -14583,7 +14621,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <f>COUNTIF($P$2:P174,P174)</f>
         <v>35</v>
@@ -14656,7 +14694,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <f>COUNTIF($P$2:P175,P175)</f>
         <v>36</v>
@@ -14729,7 +14767,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <f>COUNTIF($P$2:P176,P176)</f>
         <v>37</v>
@@ -14802,7 +14840,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <f>COUNTIF($P$2:P177,P177)</f>
         <v>38</v>
@@ -14875,7 +14913,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <f>COUNTIF($P$2:P178,P178)</f>
         <v>39</v>
@@ -14948,7 +14986,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <f>COUNTIF($P$2:P179,P179)</f>
         <v>40</v>
@@ -15021,7 +15059,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <f>COUNTIF($P$2:P180,P180)</f>
         <v>41</v>
@@ -15094,7 +15132,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <f>COUNTIF($P$2:P181,P181)</f>
         <v>42</v>
@@ -15167,7 +15205,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <f>COUNTIF($P$2:P182,P182)</f>
         <v>43</v>
@@ -15240,7 +15278,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <f>COUNTIF($P$2:P183,P183)</f>
         <v>44</v>
@@ -15313,7 +15351,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <f>COUNTIF($P$2:P184,P184)</f>
         <v>45</v>
@@ -15398,7 +15436,7 @@
         <v>3378</v>
       </c>
     </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <f>COUNTIF($P$2:P185,P185)</f>
         <v>46</v>
@@ -15483,7 +15521,7 @@
         <v>3378</v>
       </c>
     </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <f>COUNTIF($P$2:P186,P186)</f>
         <v>47</v>
@@ -15568,7 +15606,7 @@
         <v>3377</v>
       </c>
     </row>
-    <row r="187" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <f>COUNTIF($P$2:P187,P187)</f>
         <v>48</v>
@@ -15653,7 +15691,7 @@
         <v>3377</v>
       </c>
     </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <f>COUNTIF($P$2:P188,P188)</f>
         <v>49</v>
@@ -15738,7 +15776,7 @@
         <v>3376</v>
       </c>
     </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <f>COUNTIF($P$2:P189,P189)</f>
         <v>50</v>
@@ -15823,7 +15861,7 @@
         <v>3376</v>
       </c>
     </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <f>COUNTIF($P$2:P190,P190)</f>
         <v>51</v>
@@ -15908,7 +15946,7 @@
         <v>5018</v>
       </c>
     </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <f>COUNTIF($P$2:P191,P191)</f>
         <v>52</v>
@@ -15993,7 +16031,7 @@
         <v>5018</v>
       </c>
     </row>
-    <row r="192" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <f>COUNTIF($P$2:P192,P192)</f>
         <v>53</v>
@@ -16078,7 +16116,7 @@
         <v>5018</v>
       </c>
     </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <f>COUNTIF($P$2:P193,P193)</f>
         <v>54</v>
@@ -16163,7 +16201,7 @@
         <v>4830</v>
       </c>
     </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <f>COUNTIF($P$2:P194,P194)</f>
         <v>55</v>
@@ -16248,7 +16286,7 @@
         <v>4830</v>
       </c>
     </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <f>COUNTIF($P$2:P195,P195)</f>
         <v>56</v>
@@ -16333,7 +16371,7 @@
         <v>4830</v>
       </c>
     </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <f>COUNTIF($P$2:P196,P196)</f>
         <v>57</v>
@@ -16406,7 +16444,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <f>COUNTIF($P$2:P197,P197)</f>
         <v>58</v>
@@ -16479,7 +16517,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <f>COUNTIF($P$2:P198,P198)</f>
         <v>59</v>
@@ -16552,7 +16590,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <f>COUNTIF($P$2:P199,P199)</f>
         <v>60</v>
@@ -16625,7 +16663,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <f>COUNTIF($P$2:P200,P200)</f>
         <v>61</v>
@@ -16698,7 +16736,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <f>COUNTIF($P$2:P201,P201)</f>
         <v>62</v>
@@ -16771,7 +16809,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="202" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <f>COUNTIF($P$2:P202,P202)</f>
         <v>63</v>
@@ -16844,7 +16882,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="203" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <f>COUNTIF($P$2:P203,P203)</f>
         <v>64</v>
@@ -16917,7 +16955,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="204" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <f>COUNTIF($P$2:P204,P204)</f>
         <v>65</v>
@@ -16990,7 +17028,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="205" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <f>COUNTIF($P$2:P205,P205)</f>
         <v>66</v>
@@ -17063,7 +17101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="206" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <f>COUNTIF($P$2:P206,P206)</f>
         <v>1</v>
@@ -17148,7 +17186,7 @@
         <v>5042</v>
       </c>
     </row>
-    <row r="207" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <f>COUNTIF($P$2:P207,P207)</f>
         <v>2</v>
@@ -17233,7 +17271,7 @@
         <v>5042</v>
       </c>
     </row>
-    <row r="208" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <f>COUNTIF($P$2:P208,P208)</f>
         <v>3</v>
@@ -17318,7 +17356,7 @@
         <v>5042</v>
       </c>
     </row>
-    <row r="209" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <f>COUNTIF($P$2:P209,P209)</f>
         <v>4</v>
@@ -17391,7 +17429,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="210" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <f>COUNTIF($P$2:P210,P210)</f>
         <v>5</v>
@@ -17464,7 +17502,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="211" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <f>COUNTIF($P$2:P211,P211)</f>
         <v>6</v>
@@ -17537,7 +17575,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="212" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <f>COUNTIF($P$2:P212,P212)</f>
         <v>7</v>
@@ -17610,7 +17648,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="213" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <f>COUNTIF($P$2:P213,P213)</f>
         <v>8</v>
@@ -17683,7 +17721,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="214" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <f>COUNTIF($P$2:P214,P214)</f>
         <v>9</v>
@@ -17756,7 +17794,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="215" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <f>COUNTIF($P$2:P215,P215)</f>
         <v>10</v>
@@ -17829,7 +17867,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="216" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <f>COUNTIF($P$2:P216,P216)</f>
         <v>11</v>
@@ -17902,7 +17940,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="217" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <f>COUNTIF($P$2:P217,P217)</f>
         <v>1</v>
@@ -17975,7 +18013,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="218" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <f>COUNTIF($P$2:P218,P218)</f>
         <v>2</v>
@@ -18048,7 +18086,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="219" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <f>COUNTIF($P$2:P219,P219)</f>
         <v>3</v>
@@ -18121,7 +18159,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="220" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <f>COUNTIF($P$2:P220,P220)</f>
         <v>4</v>
@@ -18194,7 +18232,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="221" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <f>COUNTIF($P$2:P221,P221)</f>
         <v>1</v>
@@ -18279,7 +18317,7 @@
         <v>4834</v>
       </c>
     </row>
-    <row r="222" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <f>COUNTIF($P$2:P222,P222)</f>
         <v>2</v>
@@ -18364,7 +18402,7 @@
         <v>4834</v>
       </c>
     </row>
-    <row r="223" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <f>COUNTIF($P$2:P223,P223)</f>
         <v>3</v>
@@ -18437,7 +18475,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="224" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <f>COUNTIF($P$2:P224,P224)</f>
         <v>4</v>
@@ -18510,7 +18548,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="225" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <f>COUNTIF($P$2:P225,P225)</f>
         <v>5</v>
@@ -18583,7 +18621,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="226" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <f>COUNTIF($P$2:P226,P226)</f>
         <v>6</v>
@@ -18656,7 +18694,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="227" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <f>COUNTIF($P$2:P227,P227)</f>
         <v>7</v>
@@ -18729,7 +18767,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="228" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <f>COUNTIF($P$2:P228,P228)</f>
         <v>8</v>
@@ -18802,7 +18840,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="229" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <f>COUNTIF($P$2:P229,P229)</f>
         <v>9</v>
@@ -18875,7 +18913,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="230" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <f>COUNTIF($P$2:P230,P230)</f>
         <v>10</v>
@@ -18948,7 +18986,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="231" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <f>COUNTIF($P$2:P231,P231)</f>
         <v>11</v>
@@ -19021,7 +19059,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="232" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <f>COUNTIF($P$2:P232,P232)</f>
         <v>12</v>
@@ -19094,7 +19132,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="233" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <f>COUNTIF($P$2:P233,P233)</f>
         <v>13</v>
@@ -19167,7 +19205,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="234" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <f>COUNTIF($P$2:P234,P234)</f>
         <v>14</v>
@@ -19240,7 +19278,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="235" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <f>COUNTIF($P$2:P235,P235)</f>
         <v>15</v>
@@ -19325,7 +19363,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="236" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <f>COUNTIF($P$2:P236,P236)</f>
         <v>16</v>
@@ -19410,7 +19448,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="237" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <f>COUNTIF($P$2:P237,P237)</f>
         <v>17</v>
@@ -19495,7 +19533,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="238" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <f>COUNTIF($P$2:P238,P238)</f>
         <v>18</v>
@@ -19580,7 +19618,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="239" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <f>COUNTIF($P$2:P239,P239)</f>
         <v>19</v>
@@ -19665,7 +19703,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="240" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <f>COUNTIF($P$2:P240,P240)</f>
         <v>20</v>
@@ -19750,7 +19788,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="241" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <f>COUNTIF($P$2:P241,P241)</f>
         <v>21</v>
@@ -19835,7 +19873,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="242" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <f>COUNTIF($P$2:P242,P242)</f>
         <v>22</v>
@@ -19920,7 +19958,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="243" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <f>COUNTIF($P$2:P243,P243)</f>
         <v>23</v>
@@ -20005,7 +20043,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="244" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <f>COUNTIF($P$2:P244,P244)</f>
         <v>24</v>
@@ -20090,7 +20128,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="245" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <f>COUNTIF($P$2:P245,P245)</f>
         <v>25</v>
@@ -20175,7 +20213,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="246" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <f>COUNTIF($P$2:P246,P246)</f>
         <v>26</v>
@@ -20260,7 +20298,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="247" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <f>COUNTIF($P$2:P247,P247)</f>
         <v>27</v>
@@ -20345,7 +20383,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="248" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <f>COUNTIF($P$2:P248,P248)</f>
         <v>28</v>
@@ -20430,7 +20468,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="249" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <f>COUNTIF($P$2:P249,P249)</f>
         <v>29</v>
@@ -20515,7 +20553,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="250" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <f>COUNTIF($P$2:P250,P250)</f>
         <v>30</v>
@@ -20600,7 +20638,7 @@
         <v>4834</v>
       </c>
     </row>
-    <row r="251" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <f>COUNTIF($P$2:P251,P251)</f>
         <v>31</v>
@@ -20685,7 +20723,7 @@
         <v>4834</v>
       </c>
     </row>
-    <row r="252" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <f>COUNTIF($P$2:P252,P252)</f>
         <v>32</v>
@@ -20758,7 +20796,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="253" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <f>COUNTIF($P$2:P253,P253)</f>
         <v>33</v>
@@ -20831,7 +20869,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="254" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <f>COUNTIF($P$2:P254,P254)</f>
         <v>34</v>
@@ -20904,7 +20942,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="255" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <f>COUNTIF($P$2:P255,P255)</f>
         <v>35</v>
@@ -20977,7 +21015,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="256" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <f>COUNTIF($P$2:P256,P256)</f>
         <v>36</v>
@@ -21050,7 +21088,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="257" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <f>COUNTIF($P$2:P257,P257)</f>
         <v>37</v>
@@ -21123,7 +21161,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="258" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <f>COUNTIF($P$2:P258,P258)</f>
         <v>38</v>
@@ -21196,7 +21234,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="259" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <f>COUNTIF($P$2:P259,P259)</f>
         <v>39</v>
@@ -21269,7 +21307,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="260" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <f>COUNTIF($P$2:P260,P260)</f>
         <v>40</v>
@@ -21342,7 +21380,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="261" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <f>COUNTIF($P$2:P261,P261)</f>
         <v>41</v>
@@ -21415,7 +21453,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="262" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <f>COUNTIF($P$2:P262,P262)</f>
         <v>42</v>
@@ -21488,7 +21526,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="263" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <f>COUNTIF($P$2:P263,P263)</f>
         <v>1</v>
@@ -21573,7 +21611,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="264" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264">
         <f>COUNTIF($P$2:P264,P264)</f>
         <v>2</v>
@@ -21658,7 +21696,7 @@
         <v>4829</v>
       </c>
     </row>
-    <row r="265" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <f>COUNTIF($P$2:P265,P265)</f>
         <v>3</v>
@@ -21743,7 +21781,7 @@
         <v>4829</v>
       </c>
     </row>
-    <row r="266" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <f>COUNTIF($P$2:P266,P266)</f>
         <v>4</v>
@@ -21828,7 +21866,7 @@
         <v>4829</v>
       </c>
     </row>
-    <row r="267" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <f>COUNTIF($P$2:P267,P267)</f>
         <v>5</v>
@@ -21901,7 +21939,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="268" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <f>COUNTIF($P$2:P268,P268)</f>
         <v>6</v>
@@ -21974,7 +22012,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="269" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <f>COUNTIF($P$2:P269,P269)</f>
         <v>7</v>
@@ -22047,7 +22085,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="270" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270">
         <f>COUNTIF($P$2:P270,P270)</f>
         <v>8</v>
@@ -22120,7 +22158,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="271" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271">
         <f>COUNTIF($P$2:P271,P271)</f>
         <v>9</v>
@@ -22193,7 +22231,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="272" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272">
         <f>COUNTIF($P$2:P272,P272)</f>
         <v>10</v>
@@ -22266,7 +22304,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="273" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273">
         <f>COUNTIF($P$2:P273,P273)</f>
         <v>11</v>
@@ -22339,7 +22377,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="274" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274">
         <f>COUNTIF($P$2:P274,P274)</f>
         <v>12</v>
@@ -22412,7 +22450,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="275" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275">
         <f>COUNTIF($P$2:P275,P275)</f>
         <v>13</v>
@@ -22485,7 +22523,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="276" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276">
         <f>COUNTIF($P$2:P276,P276)</f>
         <v>14</v>
@@ -22558,7 +22596,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="277" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277">
         <f>COUNTIF($P$2:P277,P277)</f>
         <v>15</v>
@@ -22631,7 +22669,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="278" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278">
         <f>COUNTIF($P$2:P278,P278)</f>
         <v>16</v>
@@ -22704,7 +22742,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="279" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279">
         <f>COUNTIF($P$2:P279,P279)</f>
         <v>17</v>
@@ -22777,7 +22815,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="280" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280">
         <f>COUNTIF($P$2:P280,P280)</f>
         <v>18</v>
@@ -22850,7 +22888,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="281" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281">
         <f>COUNTIF($P$2:P281,P281)</f>
         <v>19</v>
@@ -22923,7 +22961,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="282" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282">
         <f>COUNTIF($P$2:P282,P282)</f>
         <v>20</v>
@@ -22996,7 +23034,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="283" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283">
         <f>COUNTIF($P$2:P283,P283)</f>
         <v>21</v>
@@ -23069,7 +23107,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="284" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284">
         <f>COUNTIF($P$2:P284,P284)</f>
         <v>22</v>
@@ -23142,7 +23180,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="285" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285">
         <f>COUNTIF($P$2:P285,P285)</f>
         <v>23</v>
@@ -23227,7 +23265,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="286" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286">
         <f>COUNTIF($P$2:P286,P286)</f>
         <v>24</v>
@@ -23312,7 +23350,7 @@
         <v>4829</v>
       </c>
     </row>
-    <row r="287" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287">
         <f>COUNTIF($P$2:P287,P287)</f>
         <v>25</v>
@@ -23397,7 +23435,7 @@
         <v>4829</v>
       </c>
     </row>
-    <row r="288" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288">
         <f>COUNTIF($P$2:P288,P288)</f>
         <v>26</v>
@@ -23482,7 +23520,7 @@
         <v>4829</v>
       </c>
     </row>
-    <row r="289" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289">
         <f>COUNTIF($P$2:P289,P289)</f>
         <v>27</v>
@@ -23555,7 +23593,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="290" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290">
         <f>COUNTIF($P$2:P290,P290)</f>
         <v>28</v>
@@ -23628,7 +23666,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="291" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291">
         <f>COUNTIF($P$2:P291,P291)</f>
         <v>29</v>
@@ -23701,7 +23739,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="292" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292">
         <f>COUNTIF($P$2:P292,P292)</f>
         <v>30</v>
@@ -23774,7 +23812,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="293" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293">
         <f>COUNTIF($P$2:P293,P293)</f>
         <v>31</v>
@@ -23847,7 +23885,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="294" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294">
         <f>COUNTIF($P$2:P294,P294)</f>
         <v>32</v>
@@ -23920,7 +23958,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="295" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295">
         <f>COUNTIF($P$2:P295,P295)</f>
         <v>33</v>
@@ -23993,7 +24031,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="296" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296">
         <f>COUNTIF($P$2:P296,P296)</f>
         <v>34</v>
@@ -24066,7 +24104,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="297" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297">
         <f>COUNTIF($P$2:P297,P297)</f>
         <v>35</v>
@@ -24139,7 +24177,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="298" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298">
         <f>COUNTIF($P$2:P298,P298)</f>
         <v>36</v>
@@ -24212,7 +24250,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="299" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299">
         <f>COUNTIF($P$2:P299,P299)</f>
         <v>37</v>
@@ -24285,7 +24323,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="300" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300">
         <f>COUNTIF($P$2:P300,P300)</f>
         <v>38</v>
@@ -24358,7 +24396,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="301" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301">
         <f>COUNTIF($P$2:P301,P301)</f>
         <v>39</v>
@@ -24431,7 +24469,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="302" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302">
         <f>COUNTIF($P$2:P302,P302)</f>
         <v>40</v>
@@ -24504,7 +24542,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="303" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303">
         <f>COUNTIF($P$2:P303,P303)</f>
         <v>41</v>
@@ -24577,7 +24615,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="304" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304">
         <f>COUNTIF($P$2:P304,P304)</f>
         <v>42</v>
@@ -24662,7 +24700,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="305" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305">
         <f>COUNTIF($P$2:P305,P305)</f>
         <v>43</v>
@@ -24747,7 +24785,7 @@
         <v>4829</v>
       </c>
     </row>
-    <row r="306" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306">
         <f>COUNTIF($P$2:P306,P306)</f>
         <v>44</v>
@@ -24832,7 +24870,7 @@
         <v>4829</v>
       </c>
     </row>
-    <row r="307" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307">
         <f>COUNTIF($P$2:P307,P307)</f>
         <v>45</v>
@@ -24917,7 +24955,7 @@
         <v>4829</v>
       </c>
     </row>
-    <row r="308" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308">
         <f>COUNTIF($P$2:P308,P308)</f>
         <v>46</v>
@@ -24990,7 +25028,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="309" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309">
         <f>COUNTIF($P$2:P309,P309)</f>
         <v>47</v>
@@ -25063,7 +25101,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="310" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310">
         <f>COUNTIF($P$2:P310,P310)</f>
         <v>48</v>
@@ -25136,7 +25174,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="311" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311">
         <f>COUNTIF($P$2:P311,P311)</f>
         <v>49</v>
@@ -25209,7 +25247,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="312" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312">
         <f>COUNTIF($P$2:P312,P312)</f>
         <v>50</v>
@@ -25282,7 +25320,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="313" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313">
         <f>COUNTIF($P$2:P313,P313)</f>
         <v>51</v>
@@ -25355,7 +25393,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="314" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314">
         <f>COUNTIF($P$2:P314,P314)</f>
         <v>52</v>
@@ -25428,7 +25466,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="315" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315">
         <f>COUNTIF($P$2:P315,P315)</f>
         <v>53</v>
@@ -25501,7 +25539,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="316" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316">
         <f>COUNTIF($P$2:P316,P316)</f>
         <v>54</v>
@@ -25574,7 +25612,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="317" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317">
         <f>COUNTIF($P$2:P317,P317)</f>
         <v>55</v>
@@ -25647,7 +25685,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="318" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318">
         <f>COUNTIF($P$2:P318,P318)</f>
         <v>56</v>
@@ -25720,7 +25758,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="319" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319">
         <f>COUNTIF($P$2:P319,P319)</f>
         <v>57</v>
@@ -25793,7 +25831,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="320" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320">
         <f>COUNTIF($P$2:P320,P320)</f>
         <v>58</v>
@@ -25866,7 +25904,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="321" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321">
         <f>COUNTIF($P$2:P321,P321)</f>
         <v>59</v>
@@ -25939,7 +25977,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="322" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322">
         <f>COUNTIF($P$2:P322,P322)</f>
         <v>60</v>
@@ -26012,7 +26050,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="323" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323">
         <f>COUNTIF($P$2:P323,P323)</f>
         <v>61</v>
@@ -26085,7 +26123,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="324" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324">
         <f>COUNTIF($P$2:P324,P324)</f>
         <v>62</v>
@@ -26158,7 +26196,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="325" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325">
         <f>COUNTIF($P$2:P325,P325)</f>
         <v>63</v>
@@ -26231,7 +26269,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="326" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326">
         <f>COUNTIF($P$2:P326,P326)</f>
         <v>64</v>
@@ -26304,7 +26342,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="327" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327">
         <f>COUNTIF($P$2:P327,P327)</f>
         <v>65</v>
@@ -26389,7 +26427,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="328" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328">
         <f>COUNTIF($P$2:P328,P328)</f>
         <v>66</v>
@@ -26474,7 +26512,7 @@
         <v>4829</v>
       </c>
     </row>
-    <row r="329" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329">
         <f>COUNTIF($P$2:P329,P329)</f>
         <v>67</v>
@@ -26559,7 +26597,7 @@
         <v>4829</v>
       </c>
     </row>
-    <row r="330" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330">
         <f>COUNTIF($P$2:P330,P330)</f>
         <v>68</v>
@@ -26644,7 +26682,7 @@
         <v>4829</v>
       </c>
     </row>
-    <row r="331" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331">
         <f>COUNTIF($P$2:P331,P331)</f>
         <v>69</v>
@@ -26717,7 +26755,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="332" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332">
         <f>COUNTIF($P$2:P332,P332)</f>
         <v>70</v>
@@ -26790,7 +26828,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="333" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333">
         <f>COUNTIF($P$2:P333,P333)</f>
         <v>71</v>
@@ -26863,7 +26901,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="334" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334">
         <f>COUNTIF($P$2:P334,P334)</f>
         <v>72</v>
@@ -26936,7 +26974,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="335" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335">
         <f>COUNTIF($P$2:P335,P335)</f>
         <v>73</v>
@@ -27009,7 +27047,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="336" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336">
         <f>COUNTIF($P$2:P336,P336)</f>
         <v>74</v>
@@ -27082,7 +27120,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="337" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337">
         <f>COUNTIF($P$2:P337,P337)</f>
         <v>75</v>
@@ -27155,7 +27193,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="338" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338">
         <f>COUNTIF($P$2:P338,P338)</f>
         <v>76</v>
@@ -27228,7 +27266,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="339" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339">
         <f>COUNTIF($P$2:P339,P339)</f>
         <v>77</v>
@@ -27301,7 +27339,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="340" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340">
         <f>COUNTIF($P$2:P340,P340)</f>
         <v>78</v>
@@ -27374,7 +27412,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="341" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341">
         <f>COUNTIF($P$2:P341,P341)</f>
         <v>79</v>
@@ -27447,7 +27485,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="342" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342">
         <f>COUNTIF($P$2:P342,P342)</f>
         <v>80</v>
@@ -27520,7 +27558,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="343" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343">
         <f>COUNTIF($P$2:P343,P343)</f>
         <v>81</v>
@@ -27593,7 +27631,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="344" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344">
         <f>COUNTIF($P$2:P344,P344)</f>
         <v>82</v>
@@ -27666,7 +27704,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="345" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345">
         <f>COUNTIF($P$2:P345,P345)</f>
         <v>83</v>
@@ -27739,7 +27777,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="346" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346">
         <f>COUNTIF($P$2:P346,P346)</f>
         <v>84</v>
@@ -27824,7 +27862,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="347" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347">
         <f>COUNTIF($P$2:P347,P347)</f>
         <v>85</v>
@@ -27909,7 +27947,7 @@
         <v>4829</v>
       </c>
     </row>
-    <row r="348" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348">
         <f>COUNTIF($P$2:P348,P348)</f>
         <v>86</v>
@@ -27994,7 +28032,7 @@
         <v>4829</v>
       </c>
     </row>
-    <row r="349" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349">
         <f>COUNTIF($P$2:P349,P349)</f>
         <v>87</v>
@@ -28079,7 +28117,7 @@
         <v>4829</v>
       </c>
     </row>
-    <row r="350" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350">
         <f>COUNTIF($P$2:P350,P350)</f>
         <v>88</v>
@@ -28152,7 +28190,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="351" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351">
         <f>COUNTIF($P$2:P351,P351)</f>
         <v>89</v>
@@ -28225,7 +28263,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="352" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352">
         <f>COUNTIF($P$2:P352,P352)</f>
         <v>90</v>
@@ -28298,7 +28336,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="353" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353">
         <f>COUNTIF($P$2:P353,P353)</f>
         <v>91</v>
@@ -28371,7 +28409,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="354" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354">
         <f>COUNTIF($P$2:P354,P354)</f>
         <v>92</v>
@@ -28444,7 +28482,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="355" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355">
         <f>COUNTIF($P$2:P355,P355)</f>
         <v>93</v>
@@ -28517,7 +28555,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="356" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356">
         <f>COUNTIF($P$2:P356,P356)</f>
         <v>94</v>
@@ -28590,7 +28628,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="357" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357">
         <f>COUNTIF($P$2:P357,P357)</f>
         <v>95</v>
@@ -28663,7 +28701,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="358" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358">
         <f>COUNTIF($P$2:P358,P358)</f>
         <v>96</v>
@@ -28736,7 +28774,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="359" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359">
         <f>COUNTIF($P$2:P359,P359)</f>
         <v>97</v>
@@ -28809,7 +28847,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="360" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360">
         <f>COUNTIF($P$2:P360,P360)</f>
         <v>98</v>
@@ -28882,7 +28920,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="361" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361">
         <f>COUNTIF($P$2:P361,P361)</f>
         <v>99</v>
@@ -28955,7 +28993,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="362" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362">
         <f>COUNTIF($P$2:P362,P362)</f>
         <v>100</v>
@@ -29028,7 +29066,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="363" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363">
         <f>COUNTIF($P$2:P363,P363)</f>
         <v>101</v>
@@ -29101,7 +29139,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="364" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364">
         <f>COUNTIF($P$2:P364,P364)</f>
         <v>102</v>
@@ -29174,7 +29212,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="365" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365">
         <f>COUNTIF($P$2:P365,P365)</f>
         <v>103</v>
@@ -29247,7 +29285,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="366" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366">
         <f>COUNTIF($P$2:P366,P366)</f>
         <v>1</v>
@@ -29320,7 +29358,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="367" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367">
         <f>COUNTIF($P$2:P367,P367)</f>
         <v>2</v>
@@ -29393,7 +29431,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="368" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368">
         <f>COUNTIF($P$2:P368,P368)</f>
         <v>3</v>
@@ -29466,7 +29504,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="369" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369">
         <f>COUNTIF($P$2:P369,P369)</f>
         <v>4</v>
@@ -29539,7 +29577,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="370" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370">
         <f>COUNTIF($P$2:P370,P370)</f>
         <v>5</v>
@@ -29612,7 +29650,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="371" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371">
         <f>COUNTIF($P$2:P371,P371)</f>
         <v>6</v>
@@ -29685,7 +29723,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="372" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372">
         <f>COUNTIF($P$2:P372,P372)</f>
         <v>1</v>
@@ -29770,7 +29808,7 @@
         <v>4184</v>
       </c>
     </row>
-    <row r="373" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373">
         <f>COUNTIF($P$2:P373,P373)</f>
         <v>2</v>
@@ -29855,7 +29893,7 @@
         <v>4184</v>
       </c>
     </row>
-    <row r="374" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374">
         <f>COUNTIF($P$2:P374,P374)</f>
         <v>3</v>
@@ -29940,7 +29978,7 @@
         <v>4184</v>
       </c>
     </row>
-    <row r="375" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375">
         <f>COUNTIF($P$2:P375,P375)</f>
         <v>4</v>
@@ -30025,7 +30063,7 @@
         <v>4185</v>
       </c>
     </row>
-    <row r="376" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376">
         <f>COUNTIF($P$2:P376,P376)</f>
         <v>5</v>
@@ -30110,7 +30148,7 @@
         <v>5016</v>
       </c>
     </row>
-    <row r="377" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377">
         <f>COUNTIF($P$2:P377,P377)</f>
         <v>6</v>
@@ -30195,7 +30233,7 @@
         <v>5016</v>
       </c>
     </row>
-    <row r="378" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378">
         <f>COUNTIF($P$2:P378,P378)</f>
         <v>7</v>
@@ -30280,7 +30318,7 @@
         <v>5016</v>
       </c>
     </row>
-    <row r="379" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379">
         <f>COUNTIF($P$2:P379,P379)</f>
         <v>8</v>
@@ -30365,7 +30403,7 @@
         <v>5055</v>
       </c>
     </row>
-    <row r="380" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380">
         <f>COUNTIF($P$2:P380,P380)</f>
         <v>9</v>
@@ -30450,7 +30488,7 @@
         <v>5055</v>
       </c>
     </row>
-    <row r="381" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381">
         <f>COUNTIF($P$2:P381,P381)</f>
         <v>10</v>
@@ -30535,7 +30573,7 @@
         <v>5055</v>
       </c>
     </row>
-    <row r="382" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382">
         <f>COUNTIF($P$2:P382,P382)</f>
         <v>11</v>
@@ -30620,7 +30658,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="383" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383">
         <f>COUNTIF($P$2:P383,P383)</f>
         <v>12</v>
@@ -30705,7 +30743,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="384" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384">
         <f>COUNTIF($P$2:P384,P384)</f>
         <v>13</v>
@@ -30790,7 +30828,7 @@
         <v>5003</v>
       </c>
     </row>
-    <row r="385" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385">
         <f>COUNTIF($P$2:P385,P385)</f>
         <v>14</v>
@@ -30875,7 +30913,7 @@
         <v>5003</v>
       </c>
     </row>
-    <row r="386" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386">
         <f>COUNTIF($P$2:P386,P386)</f>
         <v>15</v>
@@ -30960,7 +30998,7 @@
         <v>5011</v>
       </c>
     </row>
-    <row r="387" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387">
         <f>COUNTIF($P$2:P387,P387)</f>
         <v>16</v>
@@ -31300,7 +31338,7 @@
         <v>5017</v>
       </c>
     </row>
-    <row r="391" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391">
         <f>COUNTIF($P$2:P391,P391)</f>
         <v>20</v>
@@ -31385,7 +31423,7 @@
         <v>5056</v>
       </c>
     </row>
-    <row r="392" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392">
         <f>COUNTIF($P$2:P392,P392)</f>
         <v>21</v>
@@ -31470,7 +31508,7 @@
         <v>5056</v>
       </c>
     </row>
-    <row r="393" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393">
         <f>COUNTIF($P$2:P393,P393)</f>
         <v>22</v>
@@ -31555,7 +31593,7 @@
         <v>5056</v>
       </c>
     </row>
-    <row r="394" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394">
         <f>COUNTIF($P$2:P394,P394)</f>
         <v>23</v>
@@ -31640,7 +31678,7 @@
         <v>5054</v>
       </c>
     </row>
-    <row r="395" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395">
         <f>COUNTIF($P$2:P395,P395)</f>
         <v>24</v>
@@ -31725,7 +31763,7 @@
         <v>5054</v>
       </c>
     </row>
-    <row r="396" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396">
         <f>COUNTIF($P$2:P396,P396)</f>
         <v>25</v>
@@ -31810,7 +31848,7 @@
         <v>5054</v>
       </c>
     </row>
-    <row r="397" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397">
         <f>COUNTIF($P$2:P397,P397)</f>
         <v>26</v>
@@ -31892,7 +31930,7 @@
         <v>5015</v>
       </c>
     </row>
-    <row r="398" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398">
         <f>COUNTIF($P$2:P398,P398)</f>
         <v>27</v>
@@ -31974,7 +32012,7 @@
         <v>5015</v>
       </c>
     </row>
-    <row r="399" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399">
         <f>COUNTIF($P$2:P399,P399)</f>
         <v>28</v>
@@ -32059,7 +32097,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="400" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400">
         <f>COUNTIF($P$2:P400,P400)</f>
         <v>29</v>
@@ -32144,7 +32182,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="401" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401">
         <f>COUNTIF($P$2:P401,P401)</f>
         <v>30</v>
@@ -32229,7 +32267,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="402" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402">
         <f>COUNTIF($P$2:P402,P402)</f>
         <v>31</v>
@@ -32314,7 +32352,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="403" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403">
         <f>COUNTIF($P$2:P403,P403)</f>
         <v>32</v>
@@ -32399,7 +32437,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="404" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404">
         <f>COUNTIF($P$2:P404,P404)</f>
         <v>33</v>
@@ -32484,7 +32522,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="405" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405">
         <f>COUNTIF($P$2:P405,P405)</f>
         <v>34</v>
@@ -32569,7 +32607,7 @@
         <v>5053</v>
       </c>
     </row>
-    <row r="406" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406">
         <f>COUNTIF($P$2:P406,P406)</f>
         <v>35</v>
@@ -32654,7 +32692,7 @@
         <v>5053</v>
       </c>
     </row>
-    <row r="407" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407">
         <f>COUNTIF($P$2:P407,P407)</f>
         <v>36</v>
@@ -32739,7 +32777,7 @@
         <v>5053</v>
       </c>
     </row>
-    <row r="408" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408">
         <f>COUNTIF($P$2:P408,P408)</f>
         <v>37</v>
@@ -32824,7 +32862,7 @@
         <v>5053</v>
       </c>
     </row>
-    <row r="409" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409">
         <f>COUNTIF($P$2:P409,P409)</f>
         <v>38</v>
@@ -32909,7 +32947,7 @@
         <v>5053</v>
       </c>
     </row>
-    <row r="410" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410">
         <f>COUNTIF($P$2:P410,P410)</f>
         <v>39</v>
@@ -32994,7 +33032,7 @@
         <v>5053</v>
       </c>
     </row>
-    <row r="411" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411">
         <f>COUNTIF($P$2:P411,P411)</f>
         <v>40</v>
@@ -33079,7 +33117,7 @@
         <v>5052</v>
       </c>
     </row>
-    <row r="412" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412">
         <f>COUNTIF($P$2:P412,P412)</f>
         <v>41</v>
@@ -33164,7 +33202,7 @@
         <v>5052</v>
       </c>
     </row>
-    <row r="413" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413">
         <f>COUNTIF($P$2:P413,P413)</f>
         <v>42</v>
@@ -33249,7 +33287,7 @@
         <v>5052</v>
       </c>
     </row>
-    <row r="414" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414">
         <f>COUNTIF($P$2:P414,P414)</f>
         <v>43</v>
@@ -33334,7 +33372,7 @@
         <v>5052</v>
       </c>
     </row>
-    <row r="415" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415">
         <f>COUNTIF($P$2:P415,P415)</f>
         <v>44</v>
@@ -33419,7 +33457,7 @@
         <v>5052</v>
       </c>
     </row>
-    <row r="416" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416">
         <f>COUNTIF($P$2:P416,P416)</f>
         <v>45</v>
@@ -33504,7 +33542,7 @@
         <v>5052</v>
       </c>
     </row>
-    <row r="417" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417">
         <f>COUNTIF($P$2:P417,P417)</f>
         <v>46</v>
@@ -33577,7 +33615,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="418" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418">
         <f>COUNTIF($P$2:P418,P418)</f>
         <v>47</v>
@@ -33650,7 +33688,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="419" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419">
         <f>COUNTIF($P$2:P419,P419)</f>
         <v>48</v>
@@ -33723,7 +33761,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="420" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420">
         <f>COUNTIF($P$2:P420,P420)</f>
         <v>49</v>
@@ -33796,7 +33834,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="421" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421">
         <f>COUNTIF($P$2:P421,P421)</f>
         <v>50</v>
@@ -33869,7 +33907,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="422" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422">
         <f>COUNTIF($P$2:P422,P422)</f>
         <v>51</v>
@@ -33942,7 +33980,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="423" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423">
         <f>COUNTIF($P$2:P423,P423)</f>
         <v>52</v>
@@ -34015,7 +34053,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="424" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424">
         <f>COUNTIF($P$2:P424,P424)</f>
         <v>53</v>
@@ -34088,7 +34126,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="425" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425">
         <f>COUNTIF($P$2:P425,P425)</f>
         <v>54</v>
@@ -34161,7 +34199,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="426" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426">
         <f>COUNTIF($P$2:P426,P426)</f>
         <v>55</v>
@@ -34234,7 +34272,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="427" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427">
         <f>COUNTIF($P$2:P427,P427)</f>
         <v>56</v>
@@ -34307,7 +34345,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="428" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428">
         <f>COUNTIF($P$2:P428,P428)</f>
         <v>57</v>
@@ -34380,7 +34418,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="429" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429">
         <f>COUNTIF($P$2:P429,P429)</f>
         <v>58</v>
@@ -34453,7 +34491,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="430" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430">
         <f>COUNTIF($P$2:P430,P430)</f>
         <v>59</v>
@@ -34526,7 +34564,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="431" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431">
         <f>COUNTIF($P$2:P431,P431)</f>
         <v>60</v>
@@ -34599,7 +34637,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="432" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432">
         <f>COUNTIF($P$2:P432,P432)</f>
         <v>61</v>
@@ -34684,7 +34722,7 @@
         <v>4184</v>
       </c>
     </row>
-    <row r="433" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433">
         <f>COUNTIF($P$2:P433,P433)</f>
         <v>62</v>
@@ -34769,7 +34807,7 @@
         <v>4184</v>
       </c>
     </row>
-    <row r="434" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434">
         <f>COUNTIF($P$2:P434,P434)</f>
         <v>63</v>
@@ -34854,7 +34892,7 @@
         <v>4184</v>
       </c>
     </row>
-    <row r="435" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435">
         <f>COUNTIF($P$2:P435,P435)</f>
         <v>64</v>
@@ -34939,7 +34977,7 @@
         <v>4185</v>
       </c>
     </row>
-    <row r="436" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436">
         <f>COUNTIF($P$2:P436,P436)</f>
         <v>65</v>
@@ -35024,7 +35062,7 @@
         <v>5016</v>
       </c>
     </row>
-    <row r="437" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437">
         <f>COUNTIF($P$2:P437,P437)</f>
         <v>66</v>
@@ -35109,7 +35147,7 @@
         <v>5016</v>
       </c>
     </row>
-    <row r="438" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438">
         <f>COUNTIF($P$2:P438,P438)</f>
         <v>67</v>
@@ -35194,7 +35232,7 @@
         <v>5016</v>
       </c>
     </row>
-    <row r="439" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439">
         <f>COUNTIF($P$2:P439,P439)</f>
         <v>68</v>
@@ -35279,7 +35317,7 @@
         <v>5055</v>
       </c>
     </row>
-    <row r="440" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440">
         <f>COUNTIF($P$2:P440,P440)</f>
         <v>69</v>
@@ -35364,7 +35402,7 @@
         <v>5055</v>
       </c>
     </row>
-    <row r="441" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441">
         <f>COUNTIF($P$2:P441,P441)</f>
         <v>70</v>
@@ -35449,7 +35487,7 @@
         <v>5055</v>
       </c>
     </row>
-    <row r="442" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442">
         <f>COUNTIF($P$2:P442,P442)</f>
         <v>71</v>
@@ -35534,7 +35572,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="443" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443">
         <f>COUNTIF($P$2:P443,P443)</f>
         <v>72</v>
@@ -35619,7 +35657,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="444" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444">
         <f>COUNTIF($P$2:P444,P444)</f>
         <v>73</v>
@@ -35704,7 +35742,7 @@
         <v>5003</v>
       </c>
     </row>
-    <row r="445" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445">
         <f>COUNTIF($P$2:P445,P445)</f>
         <v>74</v>
@@ -35789,7 +35827,7 @@
         <v>5003</v>
       </c>
     </row>
-    <row r="446" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446">
         <f>COUNTIF($P$2:P446,P446)</f>
         <v>75</v>
@@ -35874,7 +35912,7 @@
         <v>5011</v>
       </c>
     </row>
-    <row r="447" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447">
         <f>COUNTIF($P$2:P447,P447)</f>
         <v>76</v>
@@ -36214,7 +36252,7 @@
         <v>5017</v>
       </c>
     </row>
-    <row r="451" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451">
         <f>COUNTIF($P$2:P451,P451)</f>
         <v>80</v>
@@ -36299,7 +36337,7 @@
         <v>5056</v>
       </c>
     </row>
-    <row r="452" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452">
         <f>COUNTIF($P$2:P452,P452)</f>
         <v>81</v>
@@ -36384,7 +36422,7 @@
         <v>5056</v>
       </c>
     </row>
-    <row r="453" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453">
         <f>COUNTIF($P$2:P453,P453)</f>
         <v>82</v>
@@ -36469,7 +36507,7 @@
         <v>5056</v>
       </c>
     </row>
-    <row r="454" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454">
         <f>COUNTIF($P$2:P454,P454)</f>
         <v>83</v>
@@ -36554,7 +36592,7 @@
         <v>5054</v>
       </c>
     </row>
-    <row r="455" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455">
         <f>COUNTIF($P$2:P455,P455)</f>
         <v>84</v>
@@ -36639,7 +36677,7 @@
         <v>5054</v>
       </c>
     </row>
-    <row r="456" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456">
         <f>COUNTIF($P$2:P456,P456)</f>
         <v>85</v>
@@ -36724,7 +36762,7 @@
         <v>5054</v>
       </c>
     </row>
-    <row r="457" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457">
         <f>COUNTIF($P$2:P457,P457)</f>
         <v>86</v>
@@ -36806,7 +36844,7 @@
         <v>5015</v>
       </c>
     </row>
-    <row r="458" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458">
         <f>COUNTIF($P$2:P458,P458)</f>
         <v>87</v>
@@ -36888,7 +36926,7 @@
         <v>5015</v>
       </c>
     </row>
-    <row r="459" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459">
         <f>COUNTIF($P$2:P459,P459)</f>
         <v>88</v>
@@ -36973,7 +37011,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="460" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460">
         <f>COUNTIF($P$2:P460,P460)</f>
         <v>89</v>
@@ -37058,7 +37096,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="461" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461">
         <f>COUNTIF($P$2:P461,P461)</f>
         <v>90</v>
@@ -37143,7 +37181,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="462" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462">
         <f>COUNTIF($P$2:P462,P462)</f>
         <v>91</v>
@@ -37228,7 +37266,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="463" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463">
         <f>COUNTIF($P$2:P463,P463)</f>
         <v>92</v>
@@ -37313,7 +37351,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="464" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464">
         <f>COUNTIF($P$2:P464,P464)</f>
         <v>93</v>
@@ -37398,7 +37436,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="465" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465">
         <f>COUNTIF($P$2:P465,P465)</f>
         <v>94</v>
@@ -37483,7 +37521,7 @@
         <v>5053</v>
       </c>
     </row>
-    <row r="466" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466">
         <f>COUNTIF($P$2:P466,P466)</f>
         <v>95</v>
@@ -37568,7 +37606,7 @@
         <v>5053</v>
       </c>
     </row>
-    <row r="467" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467">
         <f>COUNTIF($P$2:P467,P467)</f>
         <v>96</v>
@@ -37653,7 +37691,7 @@
         <v>5053</v>
       </c>
     </row>
-    <row r="468" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468">
         <f>COUNTIF($P$2:P468,P468)</f>
         <v>97</v>
@@ -37738,7 +37776,7 @@
         <v>5053</v>
       </c>
     </row>
-    <row r="469" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469">
         <f>COUNTIF($P$2:P469,P469)</f>
         <v>98</v>
@@ -37823,7 +37861,7 @@
         <v>5053</v>
       </c>
     </row>
-    <row r="470" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470">
         <f>COUNTIF($P$2:P470,P470)</f>
         <v>99</v>
@@ -37908,7 +37946,7 @@
         <v>5053</v>
       </c>
     </row>
-    <row r="471" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471">
         <f>COUNTIF($P$2:P471,P471)</f>
         <v>100</v>
@@ -37993,7 +38031,7 @@
         <v>5052</v>
       </c>
     </row>
-    <row r="472" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472">
         <f>COUNTIF($P$2:P472,P472)</f>
         <v>101</v>
@@ -38078,7 +38116,7 @@
         <v>5052</v>
       </c>
     </row>
-    <row r="473" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473">
         <f>COUNTIF($P$2:P473,P473)</f>
         <v>102</v>
@@ -38163,7 +38201,7 @@
         <v>5052</v>
       </c>
     </row>
-    <row r="474" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474">
         <f>COUNTIF($P$2:P474,P474)</f>
         <v>103</v>
@@ -38248,7 +38286,7 @@
         <v>5052</v>
       </c>
     </row>
-    <row r="475" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475">
         <f>COUNTIF($P$2:P475,P475)</f>
         <v>104</v>
@@ -38333,7 +38371,7 @@
         <v>5052</v>
       </c>
     </row>
-    <row r="476" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476">
         <f>COUNTIF($P$2:P476,P476)</f>
         <v>105</v>
@@ -38418,7 +38456,7 @@
         <v>5052</v>
       </c>
     </row>
-    <row r="477" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477">
         <f>COUNTIF($P$2:P477,P477)</f>
         <v>106</v>
@@ -38491,7 +38529,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="478" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478">
         <f>COUNTIF($P$2:P478,P478)</f>
         <v>107</v>
@@ -38564,7 +38602,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="479" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479">
         <f>COUNTIF($P$2:P479,P479)</f>
         <v>108</v>
@@ -38637,7 +38675,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="480" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480">
         <f>COUNTIF($P$2:P480,P480)</f>
         <v>109</v>
@@ -38710,7 +38748,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="481" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481">
         <f>COUNTIF($P$2:P481,P481)</f>
         <v>110</v>
@@ -38783,7 +38821,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="482" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482">
         <f>COUNTIF($P$2:P482,P482)</f>
         <v>111</v>
@@ -38856,7 +38894,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="483" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483">
         <f>COUNTIF($P$2:P483,P483)</f>
         <v>112</v>
@@ -38929,7 +38967,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="484" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484">
         <f>COUNTIF($P$2:P484,P484)</f>
         <v>113</v>
@@ -39002,7 +39040,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="485" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485">
         <f>COUNTIF($P$2:P485,P485)</f>
         <v>114</v>
@@ -39075,7 +39113,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="486" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486">
         <f>COUNTIF($P$2:P486,P486)</f>
         <v>115</v>
@@ -39148,7 +39186,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="487" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487">
         <f>COUNTIF($P$2:P487,P487)</f>
         <v>116</v>
@@ -39221,7 +39259,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="488" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488">
         <f>COUNTIF($P$2:P488,P488)</f>
         <v>117</v>
@@ -39294,7 +39332,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="489" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489">
         <f>COUNTIF($P$2:P489,P489)</f>
         <v>118</v>
@@ -39367,7 +39405,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="490" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490">
         <f>COUNTIF($P$2:P490,P490)</f>
         <v>119</v>
@@ -39452,7 +39490,7 @@
         <v>4184</v>
       </c>
     </row>
-    <row r="491" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491">
         <f>COUNTIF($P$2:P491,P491)</f>
         <v>120</v>
@@ -39537,7 +39575,7 @@
         <v>4184</v>
       </c>
     </row>
-    <row r="492" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492">
         <f>COUNTIF($P$2:P492,P492)</f>
         <v>121</v>
@@ -39622,7 +39660,7 @@
         <v>4184</v>
       </c>
     </row>
-    <row r="493" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493">
         <f>COUNTIF($P$2:P493,P493)</f>
         <v>122</v>
@@ -39707,7 +39745,7 @@
         <v>4185</v>
       </c>
     </row>
-    <row r="494" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494">
         <f>COUNTIF($P$2:P494,P494)</f>
         <v>123</v>
@@ -39792,7 +39830,7 @@
         <v>5016</v>
       </c>
     </row>
-    <row r="495" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495">
         <f>COUNTIF($P$2:P495,P495)</f>
         <v>124</v>
@@ -39877,7 +39915,7 @@
         <v>5016</v>
       </c>
     </row>
-    <row r="496" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496">
         <f>COUNTIF($P$2:P496,P496)</f>
         <v>125</v>
@@ -39962,7 +40000,7 @@
         <v>5016</v>
       </c>
     </row>
-    <row r="497" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497">
         <f>COUNTIF($P$2:P497,P497)</f>
         <v>126</v>
@@ -40047,7 +40085,7 @@
         <v>5055</v>
       </c>
     </row>
-    <row r="498" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498">
         <f>COUNTIF($P$2:P498,P498)</f>
         <v>127</v>
@@ -40132,7 +40170,7 @@
         <v>5055</v>
       </c>
     </row>
-    <row r="499" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499">
         <f>COUNTIF($P$2:P499,P499)</f>
         <v>128</v>
@@ -40217,7 +40255,7 @@
         <v>5055</v>
       </c>
     </row>
-    <row r="500" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500">
         <f>COUNTIF($P$2:P500,P500)</f>
         <v>129</v>
@@ -40302,7 +40340,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="501" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501">
         <f>COUNTIF($P$2:P501,P501)</f>
         <v>130</v>
@@ -40387,7 +40425,7 @@
         <v>5003</v>
       </c>
     </row>
-    <row r="502" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502">
         <f>COUNTIF($P$2:P502,P502)</f>
         <v>131</v>
@@ -40472,7 +40510,7 @@
         <v>5003</v>
       </c>
     </row>
-    <row r="503" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503">
         <f>COUNTIF($P$2:P503,P503)</f>
         <v>132</v>
@@ -40557,7 +40595,7 @@
         <v>5011</v>
       </c>
     </row>
-    <row r="504" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504">
         <f>COUNTIF($P$2:P504,P504)</f>
         <v>133</v>
@@ -40897,7 +40935,7 @@
         <v>5017</v>
       </c>
     </row>
-    <row r="508" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508">
         <f>COUNTIF($P$2:P508,P508)</f>
         <v>137</v>
@@ -40982,7 +41020,7 @@
         <v>5056</v>
       </c>
     </row>
-    <row r="509" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509">
         <f>COUNTIF($P$2:P509,P509)</f>
         <v>138</v>
@@ -41067,7 +41105,7 @@
         <v>5056</v>
       </c>
     </row>
-    <row r="510" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510">
         <f>COUNTIF($P$2:P510,P510)</f>
         <v>139</v>
@@ -41152,7 +41190,7 @@
         <v>5056</v>
       </c>
     </row>
-    <row r="511" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511">
         <f>COUNTIF($P$2:P511,P511)</f>
         <v>140</v>
@@ -41237,7 +41275,7 @@
         <v>5054</v>
       </c>
     </row>
-    <row r="512" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512">
         <f>COUNTIF($P$2:P512,P512)</f>
         <v>141</v>
@@ -41322,7 +41360,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="513" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513">
         <f>COUNTIF($P$2:P513,P513)</f>
         <v>142</v>
@@ -41407,7 +41445,7 @@
         <v>5054</v>
       </c>
     </row>
-    <row r="514" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514">
         <f>COUNTIF($P$2:P514,P514)</f>
         <v>143</v>
@@ -41492,7 +41530,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="515" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515">
         <f>COUNTIF($P$2:P515,P515)</f>
         <v>144</v>
@@ -41577,7 +41615,7 @@
         <v>5054</v>
       </c>
     </row>
-    <row r="516" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516">
         <f>COUNTIF($P$2:P516,P516)</f>
         <v>145</v>
@@ -41662,7 +41700,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="517" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517">
         <f>COUNTIF($P$2:P517,P517)</f>
         <v>146</v>
@@ -41747,7 +41785,7 @@
         <v>5054</v>
       </c>
     </row>
-    <row r="518" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518">
         <f>COUNTIF($P$2:P518,P518)</f>
         <v>147</v>
@@ -41832,7 +41870,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="519" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519">
         <f>COUNTIF($P$2:P519,P519)</f>
         <v>148</v>
@@ -41914,7 +41952,7 @@
         <v>5015</v>
       </c>
     </row>
-    <row r="520" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520">
         <f>COUNTIF($P$2:P520,P520)</f>
         <v>149</v>
@@ -41996,7 +42034,7 @@
         <v>5015</v>
       </c>
     </row>
-    <row r="521" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521">
         <f>COUNTIF($P$2:P521,P521)</f>
         <v>150</v>
@@ -42081,7 +42119,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="522" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522">
         <f>COUNTIF($P$2:P522,P522)</f>
         <v>151</v>
@@ -42166,7 +42204,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="523" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523">
         <f>COUNTIF($P$2:P523,P523)</f>
         <v>152</v>
@@ -42251,7 +42289,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="524" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524">
         <f>COUNTIF($P$2:P524,P524)</f>
         <v>153</v>
@@ -42336,7 +42374,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="525" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525">
         <f>COUNTIF($P$2:P525,P525)</f>
         <v>154</v>
@@ -42421,7 +42459,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="526" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526">
         <f>COUNTIF($P$2:P526,P526)</f>
         <v>155</v>
@@ -42506,7 +42544,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="527" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527">
         <f>COUNTIF($P$2:P527,P527)</f>
         <v>156</v>
@@ -42591,7 +42629,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="528" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528">
         <f>COUNTIF($P$2:P528,P528)</f>
         <v>157</v>
@@ -42676,7 +42714,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="529" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529">
         <f>COUNTIF($P$2:P529,P529)</f>
         <v>158</v>
@@ -42761,7 +42799,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="530" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530">
         <f>COUNTIF($P$2:P530,P530)</f>
         <v>159</v>
@@ -42846,7 +42884,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="531" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531">
         <f>COUNTIF($P$2:P531,P531)</f>
         <v>160</v>
@@ -42931,7 +42969,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="532" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532">
         <f>COUNTIF($P$2:P532,P532)</f>
         <v>161</v>
@@ -43016,7 +43054,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="533" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533">
         <f>COUNTIF($P$2:P533,P533)</f>
         <v>162</v>
@@ -43101,7 +43139,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="534" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534">
         <f>COUNTIF($P$2:P534,P534)</f>
         <v>163</v>
@@ -43186,7 +43224,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="535" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535">
         <f>COUNTIF($P$2:P535,P535)</f>
         <v>164</v>
@@ -43271,7 +43309,7 @@
         <v>5053</v>
       </c>
     </row>
-    <row r="536" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536">
         <f>COUNTIF($P$2:P536,P536)</f>
         <v>165</v>
@@ -43356,7 +43394,7 @@
         <v>5053</v>
       </c>
     </row>
-    <row r="537" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537">
         <f>COUNTIF($P$2:P537,P537)</f>
         <v>166</v>
@@ -43441,7 +43479,7 @@
         <v>5053</v>
       </c>
     </row>
-    <row r="538" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538">
         <f>COUNTIF($P$2:P538,P538)</f>
         <v>167</v>
@@ -43526,7 +43564,7 @@
         <v>5053</v>
       </c>
     </row>
-    <row r="539" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539">
         <f>COUNTIF($P$2:P539,P539)</f>
         <v>168</v>
@@ -43611,7 +43649,7 @@
         <v>5053</v>
       </c>
     </row>
-    <row r="540" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540">
         <f>COUNTIF($P$2:P540,P540)</f>
         <v>169</v>
@@ -43696,7 +43734,7 @@
         <v>5053</v>
       </c>
     </row>
-    <row r="541" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541">
         <f>COUNTIF($P$2:P541,P541)</f>
         <v>170</v>
@@ -43781,7 +43819,7 @@
         <v>5052</v>
       </c>
     </row>
-    <row r="542" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542">
         <f>COUNTIF($P$2:P542,P542)</f>
         <v>171</v>
@@ -43866,7 +43904,7 @@
         <v>5052</v>
       </c>
     </row>
-    <row r="543" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543">
         <f>COUNTIF($P$2:P543,P543)</f>
         <v>172</v>
@@ -43951,7 +43989,7 @@
         <v>5052</v>
       </c>
     </row>
-    <row r="544" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544">
         <f>COUNTIF($P$2:P544,P544)</f>
         <v>173</v>
@@ -44036,7 +44074,7 @@
         <v>5052</v>
       </c>
     </row>
-    <row r="545" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545">
         <f>COUNTIF($P$2:P545,P545)</f>
         <v>174</v>
@@ -44121,7 +44159,7 @@
         <v>5052</v>
       </c>
     </row>
-    <row r="546" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546">
         <f>COUNTIF($P$2:P546,P546)</f>
         <v>175</v>
@@ -44206,7 +44244,7 @@
         <v>5052</v>
       </c>
     </row>
-    <row r="547" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547">
         <f>COUNTIF($P$2:P547,P547)</f>
         <v>176</v>
@@ -44279,7 +44317,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="548" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548">
         <f>COUNTIF($P$2:P548,P548)</f>
         <v>177</v>
@@ -44352,7 +44390,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="549" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549">
         <f>COUNTIF($P$2:P549,P549)</f>
         <v>178</v>
@@ -44425,7 +44463,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="550" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550">
         <f>COUNTIF($P$2:P550,P550)</f>
         <v>179</v>
@@ -44498,7 +44536,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="551" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551">
         <f>COUNTIF($P$2:P551,P551)</f>
         <v>180</v>
@@ -44571,7 +44609,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="552" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552">
         <f>COUNTIF($P$2:P552,P552)</f>
         <v>181</v>
@@ -44644,7 +44682,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="553" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553">
         <f>COUNTIF($P$2:P553,P553)</f>
         <v>182</v>
@@ -44717,7 +44755,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="554" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554">
         <f>COUNTIF($P$2:P554,P554)</f>
         <v>183</v>
@@ -44790,7 +44828,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="555" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555">
         <f>COUNTIF($P$2:P555,P555)</f>
         <v>184</v>
@@ -44863,7 +44901,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="556" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556">
         <f>COUNTIF($P$2:P556,P556)</f>
         <v>185</v>
@@ -44936,7 +44974,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="557" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557">
         <f>COUNTIF($P$2:P557,P557)</f>
         <v>186</v>
@@ -45009,7 +45047,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="558" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558">
         <f>COUNTIF($P$2:P558,P558)</f>
         <v>187</v>
@@ -45082,7 +45120,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="559" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559">
         <f>COUNTIF($P$2:P559,P559)</f>
         <v>188</v>
@@ -45155,7 +45193,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="560" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560">
         <f>COUNTIF($P$2:P560,P560)</f>
         <v>189</v>
@@ -45228,7 +45266,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="561" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561">
         <f>COUNTIF($P$2:P561,P561)</f>
         <v>190</v>
@@ -45301,7 +45339,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="562" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562">
         <f>COUNTIF($P$2:P562,P562)</f>
         <v>1</v>
@@ -45386,7 +45424,7 @@
         <v>4940</v>
       </c>
     </row>
-    <row r="563" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563">
         <f>COUNTIF($P$2:P563,P563)</f>
         <v>2</v>
@@ -45471,7 +45509,7 @@
         <v>4940</v>
       </c>
     </row>
-    <row r="564" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564">
         <f>COUNTIF($P$2:P564,P564)</f>
         <v>3</v>
@@ -45556,7 +45594,7 @@
         <v>4940</v>
       </c>
     </row>
-    <row r="565" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565">
         <f>COUNTIF($P$2:P565,P565)</f>
         <v>4</v>
@@ -45641,7 +45679,7 @@
         <v>4942</v>
       </c>
     </row>
-    <row r="566" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566">
         <f>COUNTIF($P$2:P566,P566)</f>
         <v>5</v>
@@ -45726,7 +45764,7 @@
         <v>4942</v>
       </c>
     </row>
-    <row r="567" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567">
         <f>COUNTIF($P$2:P567,P567)</f>
         <v>6</v>
@@ -45811,7 +45849,7 @@
         <v>4942</v>
       </c>
     </row>
-    <row r="568" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568">
         <f>COUNTIF($P$2:P568,P568)</f>
         <v>7</v>
@@ -45896,7 +45934,7 @@
         <v>4941</v>
       </c>
     </row>
-    <row r="569" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569">
         <f>COUNTIF($P$2:P569,P569)</f>
         <v>8</v>
@@ -45981,7 +46019,7 @@
         <v>4941</v>
       </c>
     </row>
-    <row r="570" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570">
         <f>COUNTIF($P$2:P570,P570)</f>
         <v>9</v>
@@ -46066,7 +46104,7 @@
         <v>4941</v>
       </c>
     </row>
-    <row r="571" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571">
         <f>COUNTIF($P$2:P571,P571)</f>
         <v>10</v>
@@ -46148,7 +46186,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="572" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572">
         <f>COUNTIF($P$2:P572,P572)</f>
         <v>0</v>
@@ -46197,7 +46235,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="573" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573">
         <f>COUNTIF($P$2:P573,P573)</f>
         <v>0</v>
@@ -46246,7 +46284,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="574" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574">
         <f>COUNTIF($P$2:P574,P574)</f>
         <v>0</v>
@@ -46295,7 +46333,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="575" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575">
         <f>COUNTIF($P$2:P575,P575)</f>
         <v>0</v>
@@ -46344,7 +46382,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="576" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576">
         <f>COUNTIF($P$2:P576,P576)</f>
         <v>0</v>
@@ -46393,7 +46431,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="577" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577">
         <f>COUNTIF($P$2:P577,P577)</f>
         <v>0</v>
@@ -46442,7 +46480,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="578" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578">
         <f>COUNTIF($P$2:P578,P578)</f>
         <v>0</v>
@@ -46494,7 +46532,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="579" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579">
         <f>COUNTIF($P$2:P579,P579)</f>
         <v>11</v>
@@ -46579,7 +46617,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="580" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580">
         <f>COUNTIF($P$2:P580,P580)</f>
         <v>12</v>
@@ -46661,7 +46699,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="581" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581">
         <f>COUNTIF($P$2:P581,P581)</f>
         <v>0</v>
@@ -46710,7 +46748,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="582" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582">
         <f>COUNTIF($P$2:P582,P582)</f>
         <v>0</v>
@@ -46759,7 +46797,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="583" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583">
         <f>COUNTIF($P$2:P583,P583)</f>
         <v>0</v>
@@ -46808,7 +46846,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="584" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584">
         <f>COUNTIF($P$2:P584,P584)</f>
         <v>0</v>
@@ -46857,7 +46895,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="585" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585">
         <f>COUNTIF($P$2:P585,P585)</f>
         <v>0</v>
@@ -46906,7 +46944,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="586" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586">
         <f>COUNTIF($P$2:P586,P586)</f>
         <v>0</v>
@@ -46955,7 +46993,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="587" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587">
         <f>COUNTIF($P$2:P587,P587)</f>
         <v>0</v>
@@ -47007,7 +47045,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="588" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588">
         <f>COUNTIF($P$2:P588,P588)</f>
         <v>13</v>
@@ -47092,7 +47130,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="589" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589">
         <f>COUNTIF($P$2:P589,P589)</f>
         <v>14</v>
@@ -47174,7 +47212,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="590" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590">
         <f>COUNTIF($P$2:P590,P590)</f>
         <v>0</v>
@@ -47223,7 +47261,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="591" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591">
         <f>COUNTIF($P$2:P591,P591)</f>
         <v>0</v>
@@ -47272,7 +47310,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="592" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592">
         <f>COUNTIF($P$2:P592,P592)</f>
         <v>0</v>
@@ -47321,7 +47359,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="593" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593">
         <f>COUNTIF($P$2:P593,P593)</f>
         <v>0</v>
@@ -47370,7 +47408,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="594" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594">
         <f>COUNTIF($P$2:P594,P594)</f>
         <v>0</v>
@@ -47419,7 +47457,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="595" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595">
         <f>COUNTIF($P$2:P595,P595)</f>
         <v>0</v>
@@ -47468,7 +47506,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="596" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596">
         <f>COUNTIF($P$2:P596,P596)</f>
         <v>0</v>
@@ -47520,7 +47558,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="597" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597">
         <f>COUNTIF($P$2:P597,P597)</f>
         <v>15</v>
@@ -47605,7 +47643,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="598" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598">
         <f>COUNTIF($P$2:P598,P598)</f>
         <v>16</v>
@@ -47687,7 +47725,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="599" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599">
         <f>COUNTIF($P$2:P599,P599)</f>
         <v>0</v>
@@ -47736,7 +47774,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="600" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600">
         <f>COUNTIF($P$2:P600,P600)</f>
         <v>0</v>
@@ -47785,7 +47823,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="601" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601">
         <f>COUNTIF($P$2:P601,P601)</f>
         <v>0</v>
@@ -47834,7 +47872,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="602" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602">
         <f>COUNTIF($P$2:P602,P602)</f>
         <v>0</v>
@@ -47883,7 +47921,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="603" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603">
         <f>COUNTIF($P$2:P603,P603)</f>
         <v>0</v>
@@ -47932,7 +47970,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="604" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604">
         <f>COUNTIF($P$2:P604,P604)</f>
         <v>0</v>
@@ -47981,7 +48019,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="605" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605">
         <f>COUNTIF($P$2:P605,P605)</f>
         <v>0</v>
@@ -48033,7 +48071,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="606" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606">
         <f>COUNTIF($P$2:P606,P606)</f>
         <v>17</v>
@@ -48118,7 +48156,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="607" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607">
         <f>COUNTIF($P$2:P607,P607)</f>
         <v>18</v>
@@ -48191,7 +48229,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="608" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608">
         <f>COUNTIF($P$2:P608,P608)</f>
         <v>19</v>
@@ -48264,7 +48302,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="609" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609">
         <f>COUNTIF($P$2:P609,P609)</f>
         <v>20</v>
@@ -48337,7 +48375,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="610" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610">
         <f>COUNTIF($P$2:P610,P610)</f>
         <v>21</v>
@@ -48410,7 +48448,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="611" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611">
         <f>COUNTIF($P$2:P611,P611)</f>
         <v>22</v>
@@ -48495,7 +48533,7 @@
         <v>4940</v>
       </c>
     </row>
-    <row r="612" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612">
         <f>COUNTIF($P$2:P612,P612)</f>
         <v>23</v>
@@ -48580,7 +48618,7 @@
         <v>4940</v>
       </c>
     </row>
-    <row r="613" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613">
         <f>COUNTIF($P$2:P613,P613)</f>
         <v>24</v>
@@ -48665,7 +48703,7 @@
         <v>4940</v>
       </c>
     </row>
-    <row r="614" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614">
         <f>COUNTIF($P$2:P614,P614)</f>
         <v>25</v>
@@ -48750,7 +48788,7 @@
         <v>4942</v>
       </c>
     </row>
-    <row r="615" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615">
         <f>COUNTIF($P$2:P615,P615)</f>
         <v>26</v>
@@ -48835,7 +48873,7 @@
         <v>4942</v>
       </c>
     </row>
-    <row r="616" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616">
         <f>COUNTIF($P$2:P616,P616)</f>
         <v>27</v>
@@ -48920,7 +48958,7 @@
         <v>4942</v>
       </c>
     </row>
-    <row r="617" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617">
         <f>COUNTIF($P$2:P617,P617)</f>
         <v>28</v>
@@ -49005,7 +49043,7 @@
         <v>4941</v>
       </c>
     </row>
-    <row r="618" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618">
         <f>COUNTIF($P$2:P618,P618)</f>
         <v>29</v>
@@ -49090,7 +49128,7 @@
         <v>4941</v>
       </c>
     </row>
-    <row r="619" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619">
         <f>COUNTIF($P$2:P619,P619)</f>
         <v>30</v>
@@ -49175,7 +49213,7 @@
         <v>4941</v>
       </c>
     </row>
-    <row r="620" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620">
         <f>COUNTIF($P$2:P620,P620)</f>
         <v>31</v>
@@ -49260,7 +49298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621">
         <f>COUNTIF($P$2:P621,P621)</f>
         <v>32</v>
@@ -49345,7 +49383,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="622" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622">
         <f>COUNTIF($P$2:P622,P622)</f>
         <v>33</v>
@@ -49430,7 +49468,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="623" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623">
         <f>COUNTIF($P$2:P623,P623)</f>
         <v>34</v>
@@ -49515,7 +49553,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="624" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624">
         <f>COUNTIF($P$2:P624,P624)</f>
         <v>35</v>
@@ -49588,7 +49626,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="625" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625">
         <f>COUNTIF($P$2:P625,P625)</f>
         <v>36</v>
@@ -49661,7 +49699,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="626" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626">
         <f>COUNTIF($P$2:P626,P626)</f>
         <v>37</v>
@@ -49734,7 +49772,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="627" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627">
         <f>COUNTIF($P$2:P627,P627)</f>
         <v>38</v>
@@ -49807,7 +49845,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="628" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628">
         <f>COUNTIF($P$2:P628,P628)</f>
         <v>39</v>
@@ -49880,7 +49918,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="629" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629">
         <f>COUNTIF($P$2:P629,P629)</f>
         <v>1</v>
@@ -49965,7 +50003,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="630" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630">
         <f>COUNTIF($P$2:P630,P630)</f>
         <v>2</v>
@@ -50050,7 +50088,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="631" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631">
         <f>COUNTIF($P$2:P631,P631)</f>
         <v>3</v>
@@ -50135,7 +50173,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="632" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632">
         <f>COUNTIF($P$2:P632,P632)</f>
         <v>4</v>
@@ -50220,7 +50258,7 @@
         <v>5044</v>
       </c>
     </row>
-    <row r="633" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633">
         <f>COUNTIF($P$2:P633,P633)</f>
         <v>5</v>
@@ -50293,7 +50331,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="634" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634">
         <f>COUNTIF($P$2:P634,P634)</f>
         <v>6</v>
@@ -50366,7 +50404,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="635" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635">
         <f>COUNTIF($P$2:P635,P635)</f>
         <v>7</v>
@@ -50439,7 +50477,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="636" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636">
         <f>COUNTIF($P$2:P636,P636)</f>
         <v>8</v>
@@ -50512,7 +50550,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="637" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637">
         <f>COUNTIF($P$2:P637,P637)</f>
         <v>9</v>
@@ -50585,7 +50623,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="638" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638">
         <f>COUNTIF($P$2:P638,P638)</f>
         <v>10</v>
@@ -50658,7 +50696,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="639" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639">
         <f>COUNTIF($P$2:P639,P639)</f>
         <v>1</v>
@@ -50731,7 +50769,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="640" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640">
         <f>COUNTIF($P$2:P640,P640)</f>
         <v>2</v>
@@ -50804,7 +50842,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="641" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641">
         <f>COUNTIF($P$2:P641,P641)</f>
         <v>3</v>
@@ -50877,7 +50915,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="642" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642">
         <f>COUNTIF($P$2:P642,P642)</f>
         <v>4</v>
@@ -50950,7 +50988,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="643" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643">
         <f>COUNTIF($P$2:P643,P643)</f>
         <v>5</v>
@@ -51023,7 +51061,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="644" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644">
         <f>COUNTIF($P$2:P644,P644)</f>
         <v>6</v>
@@ -51096,7 +51134,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="645" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645">
         <f>COUNTIF($P$2:P645,P645)</f>
         <v>7</v>
@@ -51169,7 +51207,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="646" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646">
         <f>COUNTIF($P$2:P646,P646)</f>
         <v>8</v>
@@ -51242,7 +51280,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="647" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647">
         <f>COUNTIF($P$2:P647,P647)</f>
         <v>1</v>
@@ -51327,7 +51365,7 @@
         <v>5027</v>
       </c>
     </row>
-    <row r="648" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648">
         <f>COUNTIF($P$2:P648,P648)</f>
         <v>2</v>
@@ -51400,7 +51438,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="649" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649">
         <f>COUNTIF($P$2:P649,P649)</f>
         <v>3</v>
@@ -51473,7 +51511,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="650" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650">
         <f>COUNTIF($P$2:P650,P650)</f>
         <v>4</v>
@@ -51546,7 +51584,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="651" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651">
         <f>COUNTIF($P$2:P651,P651)</f>
         <v>5</v>
@@ -51619,7 +51657,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="652" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652">
         <f>COUNTIF($P$2:P652,P652)</f>
         <v>6</v>
@@ -51692,7 +51730,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="653" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653">
         <f>COUNTIF($P$2:P653,P653)</f>
         <v>7</v>
@@ -51765,7 +51803,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="654" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654">
         <f>COUNTIF($P$2:P654,P654)</f>
         <v>8</v>
@@ -51838,7 +51876,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="655" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655">
         <f>COUNTIF($P$2:P655,P655)</f>
         <v>9</v>
@@ -51911,7 +51949,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="656" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656">
         <f>COUNTIF($P$2:P656,P656)</f>
         <v>10</v>
@@ -51984,7 +52022,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="657" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657">
         <f>COUNTIF($P$2:P657,P657)</f>
         <v>11</v>
@@ -52057,7 +52095,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="658" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658">
         <f>COUNTIF($P$2:P658,P658)</f>
         <v>12</v>
@@ -52130,7 +52168,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="659" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659">
         <f>COUNTIF($P$2:P659,P659)</f>
         <v>13</v>
@@ -52203,7 +52241,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="660" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660">
         <f>COUNTIF($P$2:P660,P660)</f>
         <v>14</v>
@@ -52276,7 +52314,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="661" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661">
         <f>COUNTIF($P$2:P661,P661)</f>
         <v>15</v>
@@ -52349,7 +52387,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="662" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662">
         <f>COUNTIF($P$2:P662,P662)</f>
         <v>1</v>
@@ -52434,7 +52472,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="663" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663">
         <f>COUNTIF($P$2:P663,P663)</f>
         <v>2</v>
@@ -52519,7 +52557,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="664" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664">
         <f>COUNTIF($P$2:P664,P664)</f>
         <v>3</v>
@@ -52592,7 +52630,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="665" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665">
         <f>COUNTIF($P$2:P665,P665)</f>
         <v>4</v>
@@ -52665,7 +52703,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="666" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666">
         <f>COUNTIF($P$2:P666,P666)</f>
         <v>5</v>
@@ -52738,7 +52776,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="667" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667">
         <f>COUNTIF($P$2:P667,P667)</f>
         <v>6</v>
@@ -52811,7 +52849,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="668" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668">
         <f>COUNTIF($P$2:P668,P668)</f>
         <v>7</v>
@@ -52884,7 +52922,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="669" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669">
         <f>COUNTIF($P$2:P669,P669)</f>
         <v>8</v>
@@ -52957,7 +52995,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="670" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670">
         <f>COUNTIF($P$2:P670,P670)</f>
         <v>9</v>
@@ -53030,7 +53068,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="671" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671">
         <f>COUNTIF($P$2:P671,P671)</f>
         <v>10</v>
@@ -53103,7 +53141,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="672" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672">
         <f>COUNTIF($P$2:P672,P672)</f>
         <v>11</v>
@@ -53176,7 +53214,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="673" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673">
         <f>COUNTIF($P$2:P673,P673)</f>
         <v>12</v>
@@ -53249,7 +53287,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="674" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674">
         <f>COUNTIF($P$2:P674,P674)</f>
         <v>13</v>
@@ -53322,7 +53360,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="675" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675">
         <f>COUNTIF($P$2:P675,P675)</f>
         <v>14</v>
@@ -53395,7 +53433,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="676" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676">
         <f>COUNTIF($P$2:P676,P676)</f>
         <v>15</v>
@@ -53468,7 +53506,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="677" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677">
         <f>COUNTIF($P$2:P677,P677)</f>
         <v>1</v>
@@ -53553,7 +53591,7 @@
         <v>5022</v>
       </c>
     </row>
-    <row r="678" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678">
         <f>COUNTIF($P$2:P678,P678)</f>
         <v>2</v>
@@ -53638,7 +53676,7 @@
         <v>5022</v>
       </c>
     </row>
-    <row r="679" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679">
         <f>COUNTIF($P$2:P679,P679)</f>
         <v>3</v>
@@ -53723,7 +53761,7 @@
         <v>5022</v>
       </c>
     </row>
-    <row r="680" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680">
         <f>COUNTIF($P$2:P680,P680)</f>
         <v>4</v>
@@ -53808,7 +53846,7 @@
         <v>5022</v>
       </c>
     </row>
-    <row r="681" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681">
         <f>COUNTIF($P$2:P681,P681)</f>
         <v>5</v>
@@ -53893,7 +53931,7 @@
         <v>5022</v>
       </c>
     </row>
-    <row r="682" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682">
         <f>COUNTIF($P$2:P682,P682)</f>
         <v>6</v>
@@ -53978,7 +54016,7 @@
         <v>5022</v>
       </c>
     </row>
-    <row r="683" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683">
         <f>COUNTIF($P$2:P683,P683)</f>
         <v>7</v>
@@ -54063,7 +54101,7 @@
         <v>5022</v>
       </c>
     </row>
-    <row r="684" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684">
         <f>COUNTIF($P$2:P684,P684)</f>
         <v>8</v>
@@ -54148,7 +54186,7 @@
         <v>4990</v>
       </c>
     </row>
-    <row r="685" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685">
         <f>COUNTIF($P$2:P685,P685)</f>
         <v>9</v>
@@ -54233,7 +54271,7 @@
         <v>4998</v>
       </c>
     </row>
-    <row r="686" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686">
         <f>COUNTIF($P$2:P686,P686)</f>
         <v>10</v>
@@ -54318,7 +54356,7 @@
         <v>5024</v>
       </c>
     </row>
-    <row r="687" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687">
         <f>COUNTIF($P$2:P687,P687)</f>
         <v>11</v>
@@ -54403,7 +54441,7 @@
         <v>5024</v>
       </c>
     </row>
-    <row r="688" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688">
         <f>COUNTIF($P$2:P688,P688)</f>
         <v>12</v>
@@ -54488,7 +54526,7 @@
         <v>5024</v>
       </c>
     </row>
-    <row r="689" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689">
         <f>COUNTIF($P$2:P689,P689)</f>
         <v>13</v>
@@ -54573,7 +54611,7 @@
         <v>5024</v>
       </c>
     </row>
-    <row r="690" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690">
         <f>COUNTIF($P$2:P690,P690)</f>
         <v>14</v>
@@ -54658,7 +54696,7 @@
         <v>5024</v>
       </c>
     </row>
-    <row r="691" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691">
         <f>COUNTIF($P$2:P691,P691)</f>
         <v>15</v>
@@ -54743,7 +54781,7 @@
         <v>5023</v>
       </c>
     </row>
-    <row r="692" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692">
         <f>COUNTIF($P$2:P692,P692)</f>
         <v>16</v>
@@ -54828,7 +54866,7 @@
         <v>5023</v>
       </c>
     </row>
-    <row r="693" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693">
         <f>COUNTIF($P$2:P693,P693)</f>
         <v>17</v>
@@ -54913,7 +54951,7 @@
         <v>5023</v>
       </c>
     </row>
-    <row r="694" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694">
         <f>COUNTIF($P$2:P694,P694)</f>
         <v>18</v>
@@ -54998,7 +55036,7 @@
         <v>5023</v>
       </c>
     </row>
-    <row r="695" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695">
         <f>COUNTIF($P$2:P695,P695)</f>
         <v>19</v>
@@ -55083,7 +55121,7 @@
         <v>5023</v>
       </c>
     </row>
-    <row r="696" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696">
         <f>COUNTIF($P$2:P696,P696)</f>
         <v>20</v>
@@ -55168,7 +55206,7 @@
         <v>5023</v>
       </c>
     </row>
-    <row r="697" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697">
         <f>COUNTIF($P$2:P697,P697)</f>
         <v>21</v>
@@ -55253,7 +55291,7 @@
         <v>5023</v>
       </c>
     </row>
-    <row r="698" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698">
         <f>COUNTIF($P$2:P698,P698)</f>
         <v>22</v>
@@ -55338,7 +55376,7 @@
         <v>5025</v>
       </c>
     </row>
-    <row r="699" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699">
         <f>COUNTIF($P$2:P699,P699)</f>
         <v>23</v>
@@ -55423,7 +55461,7 @@
         <v>5025</v>
       </c>
     </row>
-    <row r="700" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700">
         <f>COUNTIF($P$2:P700,P700)</f>
         <v>24</v>
@@ -55508,7 +55546,7 @@
         <v>5025</v>
       </c>
     </row>
-    <row r="701" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701">
         <f>COUNTIF($P$2:P701,P701)</f>
         <v>25</v>
@@ -55593,7 +55631,7 @@
         <v>5025</v>
       </c>
     </row>
-    <row r="702" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702">
         <f>COUNTIF($P$2:P702,P702)</f>
         <v>26</v>
@@ -55678,7 +55716,7 @@
         <v>5025</v>
       </c>
     </row>
-    <row r="703" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703">
         <f>COUNTIF($P$2:P703,P703)</f>
         <v>27</v>
@@ -55763,7 +55801,7 @@
         <v>4994</v>
       </c>
     </row>
-    <row r="704" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704">
         <f>COUNTIF($P$2:P704,P704)</f>
         <v>28</v>
@@ -55848,7 +55886,7 @@
         <v>4988</v>
       </c>
     </row>
-    <row r="705" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705">
         <f>COUNTIF($P$2:P705,P705)</f>
         <v>29</v>
@@ -55933,7 +55971,7 @@
         <v>5019</v>
       </c>
     </row>
-    <row r="706" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706">
         <f>COUNTIF($P$2:P706,P706)</f>
         <v>30</v>
@@ -56018,7 +56056,7 @@
         <v>5019</v>
       </c>
     </row>
-    <row r="707" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707">
         <f>COUNTIF($P$2:P707,P707)</f>
         <v>31</v>
@@ -56103,7 +56141,7 @@
         <v>5019</v>
       </c>
     </row>
-    <row r="708" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708">
         <f>COUNTIF($P$2:P708,P708)</f>
         <v>32</v>
@@ -56188,7 +56226,7 @@
         <v>5019</v>
       </c>
     </row>
-    <row r="709" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709">
         <f>COUNTIF($P$2:P709,P709)</f>
         <v>33</v>
@@ -56273,7 +56311,7 @@
         <v>5019</v>
       </c>
     </row>
-    <row r="710" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710">
         <f>COUNTIF($P$2:P710,P710)</f>
         <v>34</v>
@@ -56358,7 +56396,7 @@
         <v>5019</v>
       </c>
     </row>
-    <row r="711" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711">
         <f>COUNTIF($P$2:P711,P711)</f>
         <v>35</v>
@@ -56443,7 +56481,7 @@
         <v>5019</v>
       </c>
     </row>
-    <row r="712" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712">
         <f>COUNTIF($P$2:P712,P712)</f>
         <v>36</v>
@@ -56528,7 +56566,7 @@
         <v>5020</v>
       </c>
     </row>
-    <row r="713" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713">
         <f>COUNTIF($P$2:P713,P713)</f>
         <v>37</v>
@@ -56613,7 +56651,7 @@
         <v>5020</v>
       </c>
     </row>
-    <row r="714" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714">
         <f>COUNTIF($P$2:P714,P714)</f>
         <v>38</v>
@@ -56698,7 +56736,7 @@
         <v>5020</v>
       </c>
     </row>
-    <row r="715" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715">
         <f>COUNTIF($P$2:P715,P715)</f>
         <v>39</v>
@@ -56783,7 +56821,7 @@
         <v>5020</v>
       </c>
     </row>
-    <row r="716" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716">
         <f>COUNTIF($P$2:P716,P716)</f>
         <v>40</v>
@@ -56868,7 +56906,7 @@
         <v>5020</v>
       </c>
     </row>
-    <row r="717" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717">
         <f>COUNTIF($P$2:P717,P717)</f>
         <v>41</v>
@@ -56953,7 +56991,7 @@
         <v>5020</v>
       </c>
     </row>
-    <row r="718" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718">
         <f>COUNTIF($P$2:P718,P718)</f>
         <v>42</v>
@@ -57038,7 +57076,7 @@
         <v>5020</v>
       </c>
     </row>
-    <row r="719" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719">
         <f>COUNTIF($P$2:P719,P719)</f>
         <v>43</v>
@@ -57123,7 +57161,7 @@
         <v>5021</v>
       </c>
     </row>
-    <row r="720" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720">
         <f>COUNTIF($P$2:P720,P720)</f>
         <v>44</v>
@@ -57208,7 +57246,7 @@
         <v>5021</v>
       </c>
     </row>
-    <row r="721" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721">
         <f>COUNTIF($P$2:P721,P721)</f>
         <v>45</v>
@@ -57293,7 +57331,7 @@
         <v>5021</v>
       </c>
     </row>
-    <row r="722" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722">
         <f>COUNTIF($P$2:P722,P722)</f>
         <v>46</v>
@@ -57378,7 +57416,7 @@
         <v>5021</v>
       </c>
     </row>
-    <row r="723" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723">
         <f>COUNTIF($P$2:P723,P723)</f>
         <v>47</v>
@@ -57463,7 +57501,7 @@
         <v>5021</v>
       </c>
     </row>
-    <row r="724" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724">
         <f>COUNTIF($P$2:P724,P724)</f>
         <v>48</v>
@@ -57548,7 +57586,7 @@
         <v>5021</v>
       </c>
     </row>
-    <row r="725" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725">
         <f>COUNTIF($P$2:P725,P725)</f>
         <v>49</v>
@@ -57633,7 +57671,7 @@
         <v>5021</v>
       </c>
     </row>
-    <row r="726" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726">
         <f>COUNTIF($P$2:P726,P726)</f>
         <v>50</v>
@@ -57718,7 +57756,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="727" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727">
         <f>COUNTIF($P$2:P727,P727)</f>
         <v>51</v>
@@ -57803,7 +57841,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="728" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728">
         <f>COUNTIF($P$2:P728,P728)</f>
         <v>52</v>
@@ -57888,7 +57926,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="729" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729">
         <f>COUNTIF($P$2:P729,P729)</f>
         <v>53</v>
@@ -57973,7 +58011,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="730" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730">
         <f>COUNTIF($P$2:P730,P730)</f>
         <v>54</v>
@@ -58058,7 +58096,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="731" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731">
         <f>COUNTIF($P$2:P731,P731)</f>
         <v>55</v>
@@ -58143,7 +58181,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="732" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732">
         <f>COUNTIF($P$2:P732,P732)</f>
         <v>56</v>
@@ -58228,7 +58266,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="733" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733">
         <f>COUNTIF($P$2:P733,P733)</f>
         <v>57</v>
@@ -58313,7 +58351,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="734" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734">
         <f>COUNTIF($P$2:P734,P734)</f>
         <v>58</v>
@@ -58398,7 +58436,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="735" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735">
         <f>COUNTIF($P$2:P735,P735)</f>
         <v>59</v>
@@ -58483,7 +58521,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="736" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736">
         <f>COUNTIF($P$2:P736,P736)</f>
         <v>60</v>
@@ -58568,7 +58606,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="737" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737">
         <f>COUNTIF($P$2:P737,P737)</f>
         <v>61</v>
@@ -58653,7 +58691,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="738" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738">
         <f>COUNTIF($P$2:P738,P738)</f>
         <v>62</v>
@@ -58738,7 +58776,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="739" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739">
         <f>COUNTIF($P$2:P739,P739)</f>
         <v>63</v>
@@ -58823,7 +58861,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="740" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740">
         <f>COUNTIF($P$2:P740,P740)</f>
         <v>64</v>
@@ -58896,7 +58934,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="741" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741">
         <f>COUNTIF($P$2:P741,P741)</f>
         <v>65</v>
@@ -58969,7 +59007,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="742" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742">
         <f>COUNTIF($P$2:P742,P742)</f>
         <v>66</v>
@@ -59042,7 +59080,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="743" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743">
         <f>COUNTIF($P$2:P743,P743)</f>
         <v>67</v>
@@ -59115,7 +59153,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="744" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744">
         <f>COUNTIF($P$2:P744,P744)</f>
         <v>68</v>
@@ -59188,7 +59226,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="745" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745">
         <f>COUNTIF($P$2:P745,P745)</f>
         <v>69</v>
@@ -59261,7 +59299,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="746" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746">
         <f>COUNTIF($P$2:P746,P746)</f>
         <v>70</v>
@@ -59334,7 +59372,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="747" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747">
         <f>COUNTIF($P$2:P747,P747)</f>
         <v>71</v>
@@ -59407,7 +59445,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="748" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748">
         <f>COUNTIF($P$2:P748,P748)</f>
         <v>72</v>
@@ -59480,7 +59518,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="749" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749">
         <f>COUNTIF($P$2:P749,P749)</f>
         <v>73</v>
@@ -59553,7 +59591,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="750" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750">
         <f>COUNTIF($P$2:P750,P750)</f>
         <v>74</v>
@@ -59626,7 +59664,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="751" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751">
         <f>COUNTIF($P$2:P751,P751)</f>
         <v>75</v>
@@ -59699,7 +59737,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="752" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752">
         <f>COUNTIF($P$2:P752,P752)</f>
         <v>76</v>
@@ -59772,7 +59810,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="753" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753">
         <f>COUNTIF($P$2:P753,P753)</f>
         <v>77</v>
@@ -59845,7 +59883,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="754" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754">
         <f>COUNTIF($P$2:P754,P754)</f>
         <v>78</v>
@@ -59930,7 +59968,7 @@
         <v>5022</v>
       </c>
     </row>
-    <row r="755" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755">
         <f>COUNTIF($P$2:P755,P755)</f>
         <v>79</v>
@@ -60015,7 +60053,7 @@
         <v>5022</v>
       </c>
     </row>
-    <row r="756" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756">
         <f>COUNTIF($P$2:P756,P756)</f>
         <v>80</v>
@@ -60100,7 +60138,7 @@
         <v>5022</v>
       </c>
     </row>
-    <row r="757" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757">
         <f>COUNTIF($P$2:P757,P757)</f>
         <v>81</v>
@@ -60185,7 +60223,7 @@
         <v>5022</v>
       </c>
     </row>
-    <row r="758" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758">
         <f>COUNTIF($P$2:P758,P758)</f>
         <v>82</v>
@@ -60270,7 +60308,7 @@
         <v>5022</v>
       </c>
     </row>
-    <row r="759" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759">
         <f>COUNTIF($P$2:P759,P759)</f>
         <v>83</v>
@@ -60355,7 +60393,7 @@
         <v>5022</v>
       </c>
     </row>
-    <row r="760" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760">
         <f>COUNTIF($P$2:P760,P760)</f>
         <v>84</v>
@@ -60440,7 +60478,7 @@
         <v>5022</v>
       </c>
     </row>
-    <row r="761" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761">
         <f>COUNTIF($P$2:P761,P761)</f>
         <v>85</v>
@@ -60525,7 +60563,7 @@
         <v>4990</v>
       </c>
     </row>
-    <row r="762" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762">
         <f>COUNTIF($P$2:P762,P762)</f>
         <v>86</v>
@@ -60610,7 +60648,7 @@
         <v>4998</v>
       </c>
     </row>
-    <row r="763" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763">
         <f>COUNTIF($P$2:P763,P763)</f>
         <v>87</v>
@@ -60695,7 +60733,7 @@
         <v>5024</v>
       </c>
     </row>
-    <row r="764" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764">
         <f>COUNTIF($P$2:P764,P764)</f>
         <v>88</v>
@@ -60780,7 +60818,7 @@
         <v>5024</v>
       </c>
     </row>
-    <row r="765" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765">
         <f>COUNTIF($P$2:P765,P765)</f>
         <v>89</v>
@@ -60865,7 +60903,7 @@
         <v>5024</v>
       </c>
     </row>
-    <row r="766" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766">
         <f>COUNTIF($P$2:P766,P766)</f>
         <v>90</v>
@@ -60950,7 +60988,7 @@
         <v>5024</v>
       </c>
     </row>
-    <row r="767" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767">
         <f>COUNTIF($P$2:P767,P767)</f>
         <v>91</v>
@@ -61035,7 +61073,7 @@
         <v>5024</v>
       </c>
     </row>
-    <row r="768" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768">
         <f>COUNTIF($P$2:P768,P768)</f>
         <v>92</v>
@@ -61120,7 +61158,7 @@
         <v>5023</v>
       </c>
     </row>
-    <row r="769" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769">
         <f>COUNTIF($P$2:P769,P769)</f>
         <v>93</v>
@@ -61205,7 +61243,7 @@
         <v>5023</v>
       </c>
     </row>
-    <row r="770" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770">
         <f>COUNTIF($P$2:P770,P770)</f>
         <v>94</v>
@@ -61290,7 +61328,7 @@
         <v>5023</v>
       </c>
     </row>
-    <row r="771" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771">
         <f>COUNTIF($P$2:P771,P771)</f>
         <v>95</v>
@@ -61375,7 +61413,7 @@
         <v>5023</v>
       </c>
     </row>
-    <row r="772" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772">
         <f>COUNTIF($P$2:P772,P772)</f>
         <v>96</v>
@@ -61460,7 +61498,7 @@
         <v>5023</v>
       </c>
     </row>
-    <row r="773" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773">
         <f>COUNTIF($P$2:P773,P773)</f>
         <v>97</v>
@@ -61545,7 +61583,7 @@
         <v>5023</v>
       </c>
     </row>
-    <row r="774" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774">
         <f>COUNTIF($P$2:P774,P774)</f>
         <v>98</v>
@@ -61630,7 +61668,7 @@
         <v>5023</v>
       </c>
     </row>
-    <row r="775" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775">
         <f>COUNTIF($P$2:P775,P775)</f>
         <v>99</v>
@@ -61715,7 +61753,7 @@
         <v>5025</v>
       </c>
     </row>
-    <row r="776" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776">
         <f>COUNTIF($P$2:P776,P776)</f>
         <v>100</v>
@@ -61800,7 +61838,7 @@
         <v>5025</v>
       </c>
     </row>
-    <row r="777" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777">
         <f>COUNTIF($P$2:P777,P777)</f>
         <v>101</v>
@@ -61885,7 +61923,7 @@
         <v>5025</v>
       </c>
     </row>
-    <row r="778" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778">
         <f>COUNTIF($P$2:P778,P778)</f>
         <v>102</v>
@@ -61970,7 +62008,7 @@
         <v>5025</v>
       </c>
     </row>
-    <row r="779" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779">
         <f>COUNTIF($P$2:P779,P779)</f>
         <v>103</v>
@@ -62055,7 +62093,7 @@
         <v>5025</v>
       </c>
     </row>
-    <row r="780" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780">
         <f>COUNTIF($P$2:P780,P780)</f>
         <v>104</v>
@@ -62140,7 +62178,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="781" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781">
         <f>COUNTIF($P$2:P781,P781)</f>
         <v>105</v>
@@ -62225,7 +62263,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="782" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782">
         <f>COUNTIF($P$2:P782,P782)</f>
         <v>106</v>
@@ -62310,7 +62348,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="783" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783">
         <f>COUNTIF($P$2:P783,P783)</f>
         <v>107</v>
@@ -62395,7 +62433,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="784" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784">
         <f>COUNTIF($P$2:P784,P784)</f>
         <v>108</v>
@@ -62480,7 +62518,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="785" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785">
         <f>COUNTIF($P$2:P785,P785)</f>
         <v>109</v>
@@ -62565,7 +62603,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="786" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786">
         <f>COUNTIF($P$2:P786,P786)</f>
         <v>110</v>
@@ -62650,7 +62688,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="787" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787">
         <f>COUNTIF($P$2:P787,P787)</f>
         <v>111</v>
@@ -62735,7 +62773,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="788" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A788">
         <f>COUNTIF($P$2:P788,P788)</f>
         <v>112</v>
@@ -62820,7 +62858,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="789" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789">
         <f>COUNTIF($P$2:P789,P789)</f>
         <v>113</v>
@@ -62905,7 +62943,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="790" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790">
         <f>COUNTIF($P$2:P790,P790)</f>
         <v>114</v>
@@ -62990,7 +63028,7 @@
         <v>4994</v>
       </c>
     </row>
-    <row r="791" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791">
         <f>COUNTIF($P$2:P791,P791)</f>
         <v>115</v>
@@ -63075,7 +63113,7 @@
         <v>4988</v>
       </c>
     </row>
-    <row r="792" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792">
         <f>COUNTIF($P$2:P792,P792)</f>
         <v>116</v>
@@ -63160,7 +63198,7 @@
         <v>5019</v>
       </c>
     </row>
-    <row r="793" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793">
         <f>COUNTIF($P$2:P793,P793)</f>
         <v>117</v>
@@ -63245,7 +63283,7 @@
         <v>5019</v>
       </c>
     </row>
-    <row r="794" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A794">
         <f>COUNTIF($P$2:P794,P794)</f>
         <v>118</v>
@@ -63330,7 +63368,7 @@
         <v>5019</v>
       </c>
     </row>
-    <row r="795" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795">
         <f>COUNTIF($P$2:P795,P795)</f>
         <v>119</v>
@@ -63415,7 +63453,7 @@
         <v>5019</v>
       </c>
     </row>
-    <row r="796" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A796">
         <f>COUNTIF($P$2:P796,P796)</f>
         <v>120</v>
@@ -63500,7 +63538,7 @@
         <v>5019</v>
       </c>
     </row>
-    <row r="797" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A797">
         <f>COUNTIF($P$2:P797,P797)</f>
         <v>121</v>
@@ -63585,7 +63623,7 @@
         <v>5019</v>
       </c>
     </row>
-    <row r="798" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A798">
         <f>COUNTIF($P$2:P798,P798)</f>
         <v>122</v>
@@ -63670,7 +63708,7 @@
         <v>5019</v>
       </c>
     </row>
-    <row r="799" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A799">
         <f>COUNTIF($P$2:P799,P799)</f>
         <v>123</v>
@@ -63755,7 +63793,7 @@
         <v>5020</v>
       </c>
     </row>
-    <row r="800" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800">
         <f>COUNTIF($P$2:P800,P800)</f>
         <v>124</v>
@@ -63840,7 +63878,7 @@
         <v>5020</v>
       </c>
     </row>
-    <row r="801" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A801">
         <f>COUNTIF($P$2:P801,P801)</f>
         <v>125</v>
@@ -63925,7 +63963,7 @@
         <v>5020</v>
       </c>
     </row>
-    <row r="802" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802">
         <f>COUNTIF($P$2:P802,P802)</f>
         <v>126</v>
@@ -64010,7 +64048,7 @@
         <v>5020</v>
       </c>
     </row>
-    <row r="803" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803">
         <f>COUNTIF($P$2:P803,P803)</f>
         <v>127</v>
@@ -64095,7 +64133,7 @@
         <v>5020</v>
       </c>
     </row>
-    <row r="804" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A804">
         <f>COUNTIF($P$2:P804,P804)</f>
         <v>128</v>
@@ -64180,7 +64218,7 @@
         <v>5020</v>
       </c>
     </row>
-    <row r="805" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A805">
         <f>COUNTIF($P$2:P805,P805)</f>
         <v>129</v>
@@ -64265,7 +64303,7 @@
         <v>5020</v>
       </c>
     </row>
-    <row r="806" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806">
         <f>COUNTIF($P$2:P806,P806)</f>
         <v>130</v>
@@ -64350,7 +64388,7 @@
         <v>5021</v>
       </c>
     </row>
-    <row r="807" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A807">
         <f>COUNTIF($P$2:P807,P807)</f>
         <v>131</v>
@@ -64435,7 +64473,7 @@
         <v>5021</v>
       </c>
     </row>
-    <row r="808" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A808">
         <f>COUNTIF($P$2:P808,P808)</f>
         <v>132</v>
@@ -64520,7 +64558,7 @@
         <v>5021</v>
       </c>
     </row>
-    <row r="809" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A809">
         <f>COUNTIF($P$2:P809,P809)</f>
         <v>133</v>
@@ -64605,7 +64643,7 @@
         <v>5021</v>
       </c>
     </row>
-    <row r="810" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A810">
         <f>COUNTIF($P$2:P810,P810)</f>
         <v>134</v>
@@ -64690,7 +64728,7 @@
         <v>5021</v>
       </c>
     </row>
-    <row r="811" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811">
         <f>COUNTIF($P$2:P811,P811)</f>
         <v>135</v>
@@ -64775,7 +64813,7 @@
         <v>5021</v>
       </c>
     </row>
-    <row r="812" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A812">
         <f>COUNTIF($P$2:P812,P812)</f>
         <v>136</v>
@@ -64860,7 +64898,7 @@
         <v>5021</v>
       </c>
     </row>
-    <row r="813" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A813">
         <f>COUNTIF($P$2:P813,P813)</f>
         <v>137</v>
@@ -64933,7 +64971,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="814" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814">
         <f>COUNTIF($P$2:P814,P814)</f>
         <v>138</v>
@@ -65006,7 +65044,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="815" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A815">
         <f>COUNTIF($P$2:P815,P815)</f>
         <v>139</v>
@@ -65079,7 +65117,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="816" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A816">
         <f>COUNTIF($P$2:P816,P816)</f>
         <v>140</v>
@@ -65152,7 +65190,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="817" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A817">
         <f>COUNTIF($P$2:P817,P817)</f>
         <v>141</v>
@@ -65225,7 +65263,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="818" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A818">
         <f>COUNTIF($P$2:P818,P818)</f>
         <v>142</v>
@@ -65298,7 +65336,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="819" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A819">
         <f>COUNTIF($P$2:P819,P819)</f>
         <v>143</v>
@@ -65371,7 +65409,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="820" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A820">
         <f>COUNTIF($P$2:P820,P820)</f>
         <v>144</v>
@@ -65444,7 +65482,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="821" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A821">
         <f>COUNTIF($P$2:P821,P821)</f>
         <v>145</v>
@@ -65517,7 +65555,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="822" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A822">
         <f>COUNTIF($P$2:P822,P822)</f>
         <v>146</v>
@@ -65590,7 +65628,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="823" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A823">
         <f>COUNTIF($P$2:P823,P823)</f>
         <v>147</v>
@@ -65663,7 +65701,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="824" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A824">
         <f>COUNTIF($P$2:P824,P824)</f>
         <v>148</v>
@@ -65736,7 +65774,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="825" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A825">
         <f>COUNTIF($P$2:P825,P825)</f>
         <v>149</v>
@@ -65809,7 +65847,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="826" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A826">
         <f>COUNTIF($P$2:P826,P826)</f>
         <v>150</v>
@@ -65882,7 +65920,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="827" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A827">
         <f>COUNTIF($P$2:P827,P827)</f>
         <v>151</v>
@@ -65955,7 +65993,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="828" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A828">
         <f>COUNTIF($P$2:P828,P828)</f>
         <v>152</v>
@@ -66040,7 +66078,7 @@
         <v>5022</v>
       </c>
     </row>
-    <row r="829" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A829">
         <f>COUNTIF($P$2:P829,P829)</f>
         <v>153</v>
@@ -66125,7 +66163,7 @@
         <v>5022</v>
       </c>
     </row>
-    <row r="830" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A830">
         <f>COUNTIF($P$2:P830,P830)</f>
         <v>154</v>
@@ -66210,7 +66248,7 @@
         <v>5022</v>
       </c>
     </row>
-    <row r="831" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A831">
         <f>COUNTIF($P$2:P831,P831)</f>
         <v>155</v>
@@ -66295,7 +66333,7 @@
         <v>5022</v>
       </c>
     </row>
-    <row r="832" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A832">
         <f>COUNTIF($P$2:P832,P832)</f>
         <v>156</v>
@@ -66380,7 +66418,7 @@
         <v>5022</v>
       </c>
     </row>
-    <row r="833" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A833">
         <f>COUNTIF($P$2:P833,P833)</f>
         <v>157</v>
@@ -66465,7 +66503,7 @@
         <v>5022</v>
       </c>
     </row>
-    <row r="834" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A834">
         <f>COUNTIF($P$2:P834,P834)</f>
         <v>158</v>
@@ -66550,7 +66588,7 @@
         <v>5022</v>
       </c>
     </row>
-    <row r="835" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A835">
         <f>COUNTIF($P$2:P835,P835)</f>
         <v>159</v>
@@ -66635,7 +66673,7 @@
         <v>4990</v>
       </c>
     </row>
-    <row r="836" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A836">
         <f>COUNTIF($P$2:P836,P836)</f>
         <v>160</v>
@@ -66720,7 +66758,7 @@
         <v>4998</v>
       </c>
     </row>
-    <row r="837" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A837">
         <f>COUNTIF($P$2:P837,P837)</f>
         <v>161</v>
@@ -66805,7 +66843,7 @@
         <v>5024</v>
       </c>
     </row>
-    <row r="838" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A838">
         <f>COUNTIF($P$2:P838,P838)</f>
         <v>162</v>
@@ -66890,7 +66928,7 @@
         <v>5024</v>
       </c>
     </row>
-    <row r="839" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A839">
         <f>COUNTIF($P$2:P839,P839)</f>
         <v>163</v>
@@ -66975,7 +67013,7 @@
         <v>5024</v>
       </c>
     </row>
-    <row r="840" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A840">
         <f>COUNTIF($P$2:P840,P840)</f>
         <v>164</v>
@@ -67060,7 +67098,7 @@
         <v>5024</v>
       </c>
     </row>
-    <row r="841" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A841">
         <f>COUNTIF($P$2:P841,P841)</f>
         <v>165</v>
@@ -67145,7 +67183,7 @@
         <v>5024</v>
       </c>
     </row>
-    <row r="842" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A842">
         <f>COUNTIF($P$2:P842,P842)</f>
         <v>166</v>
@@ -67230,7 +67268,7 @@
         <v>5023</v>
       </c>
     </row>
-    <row r="843" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A843">
         <f>COUNTIF($P$2:P843,P843)</f>
         <v>167</v>
@@ -67315,7 +67353,7 @@
         <v>5023</v>
       </c>
     </row>
-    <row r="844" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A844">
         <f>COUNTIF($P$2:P844,P844)</f>
         <v>168</v>
@@ -67400,7 +67438,7 @@
         <v>5023</v>
       </c>
     </row>
-    <row r="845" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A845">
         <f>COUNTIF($P$2:P845,P845)</f>
         <v>169</v>
@@ -67485,7 +67523,7 @@
         <v>5023</v>
       </c>
     </row>
-    <row r="846" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A846">
         <f>COUNTIF($P$2:P846,P846)</f>
         <v>170</v>
@@ -67570,7 +67608,7 @@
         <v>5023</v>
       </c>
     </row>
-    <row r="847" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A847">
         <f>COUNTIF($P$2:P847,P847)</f>
         <v>171</v>
@@ -67655,7 +67693,7 @@
         <v>5023</v>
       </c>
     </row>
-    <row r="848" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A848">
         <f>COUNTIF($P$2:P848,P848)</f>
         <v>172</v>
@@ -67740,7 +67778,7 @@
         <v>5023</v>
       </c>
     </row>
-    <row r="849" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A849">
         <f>COUNTIF($P$2:P849,P849)</f>
         <v>173</v>
@@ -67825,7 +67863,7 @@
         <v>5025</v>
       </c>
     </row>
-    <row r="850" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A850">
         <f>COUNTIF($P$2:P850,P850)</f>
         <v>174</v>
@@ -67910,7 +67948,7 @@
         <v>5025</v>
       </c>
     </row>
-    <row r="851" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A851">
         <f>COUNTIF($P$2:P851,P851)</f>
         <v>175</v>
@@ -67995,7 +68033,7 @@
         <v>5025</v>
       </c>
     </row>
-    <row r="852" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A852">
         <f>COUNTIF($P$2:P852,P852)</f>
         <v>176</v>
@@ -68080,7 +68118,7 @@
         <v>5025</v>
       </c>
     </row>
-    <row r="853" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A853">
         <f>COUNTIF($P$2:P853,P853)</f>
         <v>177</v>
@@ -68165,7 +68203,7 @@
         <v>5025</v>
       </c>
     </row>
-    <row r="854" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A854">
         <f>COUNTIF($P$2:P854,P854)</f>
         <v>178</v>
@@ -68250,7 +68288,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="855" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A855">
         <f>COUNTIF($P$2:P855,P855)</f>
         <v>179</v>
@@ -68335,7 +68373,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="856" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A856">
         <f>COUNTIF($P$2:P856,P856)</f>
         <v>180</v>
@@ -68420,7 +68458,7 @@
         <v>4994</v>
       </c>
     </row>
-    <row r="857" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A857">
         <f>COUNTIF($P$2:P857,P857)</f>
         <v>181</v>
@@ -68505,7 +68543,7 @@
         <v>4988</v>
       </c>
     </row>
-    <row r="858" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A858">
         <f>COUNTIF($P$2:P858,P858)</f>
         <v>182</v>
@@ -68590,7 +68628,7 @@
         <v>5019</v>
       </c>
     </row>
-    <row r="859" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A859">
         <f>COUNTIF($P$2:P859,P859)</f>
         <v>183</v>
@@ -68675,7 +68713,7 @@
         <v>5019</v>
       </c>
     </row>
-    <row r="860" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A860">
         <f>COUNTIF($P$2:P860,P860)</f>
         <v>184</v>
@@ -68760,7 +68798,7 @@
         <v>5019</v>
       </c>
     </row>
-    <row r="861" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A861">
         <f>COUNTIF($P$2:P861,P861)</f>
         <v>185</v>
@@ -68845,7 +68883,7 @@
         <v>5019</v>
       </c>
     </row>
-    <row r="862" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A862">
         <f>COUNTIF($P$2:P862,P862)</f>
         <v>186</v>
@@ -68930,7 +68968,7 @@
         <v>5019</v>
       </c>
     </row>
-    <row r="863" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A863">
         <f>COUNTIF($P$2:P863,P863)</f>
         <v>187</v>
@@ -69015,7 +69053,7 @@
         <v>5019</v>
       </c>
     </row>
-    <row r="864" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A864">
         <f>COUNTIF($P$2:P864,P864)</f>
         <v>188</v>
@@ -69100,7 +69138,7 @@
         <v>5019</v>
       </c>
     </row>
-    <row r="865" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A865">
         <f>COUNTIF($P$2:P865,P865)</f>
         <v>189</v>
@@ -69185,7 +69223,7 @@
         <v>5020</v>
       </c>
     </row>
-    <row r="866" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A866">
         <f>COUNTIF($P$2:P866,P866)</f>
         <v>190</v>
@@ -69270,7 +69308,7 @@
         <v>5020</v>
       </c>
     </row>
-    <row r="867" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A867">
         <f>COUNTIF($P$2:P867,P867)</f>
         <v>191</v>
@@ -69355,7 +69393,7 @@
         <v>5020</v>
       </c>
     </row>
-    <row r="868" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A868">
         <f>COUNTIF($P$2:P868,P868)</f>
         <v>192</v>
@@ -69440,7 +69478,7 @@
         <v>5020</v>
       </c>
     </row>
-    <row r="869" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A869">
         <f>COUNTIF($P$2:P869,P869)</f>
         <v>193</v>
@@ -69525,7 +69563,7 @@
         <v>5020</v>
       </c>
     </row>
-    <row r="870" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A870">
         <f>COUNTIF($P$2:P870,P870)</f>
         <v>194</v>
@@ -69610,7 +69648,7 @@
         <v>5020</v>
       </c>
     </row>
-    <row r="871" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A871">
         <f>COUNTIF($P$2:P871,P871)</f>
         <v>195</v>
@@ -69695,7 +69733,7 @@
         <v>5020</v>
       </c>
     </row>
-    <row r="872" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A872">
         <f>COUNTIF($P$2:P872,P872)</f>
         <v>196</v>
@@ -69780,7 +69818,7 @@
         <v>5021</v>
       </c>
     </row>
-    <row r="873" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A873">
         <f>COUNTIF($P$2:P873,P873)</f>
         <v>197</v>
@@ -69865,7 +69903,7 @@
         <v>5021</v>
       </c>
     </row>
-    <row r="874" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A874">
         <f>COUNTIF($P$2:P874,P874)</f>
         <v>198</v>
@@ -69950,7 +69988,7 @@
         <v>5021</v>
       </c>
     </row>
-    <row r="875" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A875">
         <f>COUNTIF($P$2:P875,P875)</f>
         <v>199</v>
@@ -70035,7 +70073,7 @@
         <v>5021</v>
       </c>
     </row>
-    <row r="876" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A876">
         <f>COUNTIF($P$2:P876,P876)</f>
         <v>200</v>
@@ -70120,7 +70158,7 @@
         <v>5021</v>
       </c>
     </row>
-    <row r="877" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A877">
         <f>COUNTIF($P$2:P877,P877)</f>
         <v>201</v>
@@ -70205,7 +70243,7 @@
         <v>5021</v>
       </c>
     </row>
-    <row r="878" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A878">
         <f>COUNTIF($P$2:P878,P878)</f>
         <v>202</v>
@@ -70290,7 +70328,7 @@
         <v>5021</v>
       </c>
     </row>
-    <row r="879" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A879">
         <f>COUNTIF($P$2:P879,P879)</f>
         <v>203</v>
@@ -70363,7 +70401,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="880" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A880">
         <f>COUNTIF($P$2:P880,P880)</f>
         <v>204</v>
@@ -70436,7 +70474,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="881" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A881">
         <f>COUNTIF($P$2:P881,P881)</f>
         <v>205</v>
@@ -70509,7 +70547,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="882" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A882">
         <f>COUNTIF($P$2:P882,P882)</f>
         <v>206</v>
@@ -70582,7 +70620,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="883" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A883">
         <f>COUNTIF($P$2:P883,P883)</f>
         <v>207</v>
@@ -70655,7 +70693,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="884" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A884">
         <f>COUNTIF($P$2:P884,P884)</f>
         <v>208</v>
@@ -70728,7 +70766,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="885" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A885">
         <f>COUNTIF($P$2:P885,P885)</f>
         <v>209</v>
@@ -70801,7 +70839,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="886" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A886">
         <f>COUNTIF($P$2:P886,P886)</f>
         <v>210</v>
@@ -70874,7 +70912,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="887" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A887">
         <f>COUNTIF($P$2:P887,P887)</f>
         <v>211</v>
@@ -70947,7 +70985,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="888" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A888">
         <f>COUNTIF($P$2:P888,P888)</f>
         <v>212</v>
@@ -71020,7 +71058,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="889" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A889">
         <f>COUNTIF($P$2:P889,P889)</f>
         <v>213</v>
@@ -71093,7 +71131,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="890" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A890">
         <f>COUNTIF($P$2:P890,P890)</f>
         <v>214</v>
@@ -71166,7 +71204,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="891" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A891">
         <f>COUNTIF($P$2:P891,P891)</f>
         <v>1</v>
@@ -71251,7 +71289,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="892" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A892">
         <f>COUNTIF($P$2:P892,P892)</f>
         <v>2</v>
@@ -71336,7 +71374,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="893" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A893">
         <f>COUNTIF($P$2:P893,P893)</f>
         <v>3</v>
@@ -71421,7 +71459,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="894" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A894">
         <f>COUNTIF($P$2:P894,P894)</f>
         <v>4</v>
@@ -71506,7 +71544,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="895" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A895">
         <f>COUNTIF($P$2:P895,P895)</f>
         <v>5</v>
@@ -71591,7 +71629,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="896" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A896">
         <f>COUNTIF($P$2:P896,P896)</f>
         <v>6</v>
@@ -71676,7 +71714,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="897" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A897">
         <f>COUNTIF($P$2:P897,P897)</f>
         <v>7</v>
@@ -71761,7 +71799,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="898" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A898">
         <f>COUNTIF($P$2:P898,P898)</f>
         <v>8</v>
@@ -71846,7 +71884,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="899" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A899">
         <f>COUNTIF($P$2:P899,P899)</f>
         <v>9</v>
@@ -71919,7 +71957,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="900" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A900">
         <f>COUNTIF($P$2:P900,P900)</f>
         <v>10</v>
@@ -71993,7 +72031,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="N1:Z900" xr:uid="{D64DD364-8876-4047-AF5D-F832B1706542}"/>
+  <autoFilter ref="N1:Z900" xr:uid="{D64DD364-8876-4047-AF5D-F832B1706542}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="OCS"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="8">
+      <filters>
+        <filter val="ocs.ed.mandate.default.details"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="O1:AA1048576">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Device">
       <formula>NOT(ISERROR(SEARCH("Device",O1)))</formula>
@@ -72008,4 +72057,604 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6133A448-9349-4320-A149-EF4A3B8A2DEC}">
+  <dimension ref="A1:K52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" t="s">
+        <v>113</v>
+      </c>
+      <c r="I14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" t="s">
+        <v>173</v>
+      </c>
+      <c r="I16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" t="s">
+        <v>200</v>
+      </c>
+      <c r="I17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E18" t="s">
+        <v>204</v>
+      </c>
+      <c r="I18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>164</v>
+      </c>
+      <c r="E19" t="s">
+        <v>255</v>
+      </c>
+      <c r="I19" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>173</v>
+      </c>
+      <c r="E20" t="s">
+        <v>266</v>
+      </c>
+      <c r="I20" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>200</v>
+      </c>
+      <c r="E21" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>204</v>
+      </c>
+      <c r="E22" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>255</v>
+      </c>
+      <c r="F23" t="s">
+        <v>183</v>
+      </c>
+      <c r="G23" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>282</v>
+      </c>
+      <c r="C27" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>280</v>
+      </c>
+      <c r="C28" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+      <c r="I34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" t="s">
+        <v>59</v>
+      </c>
+      <c r="I35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" t="s">
+        <v>78</v>
+      </c>
+      <c r="I36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" t="s">
+        <v>82</v>
+      </c>
+      <c r="I37" t="s">
+        <v>171</v>
+      </c>
+      <c r="J37" t="s">
+        <v>179</v>
+      </c>
+      <c r="K37" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" t="s">
+        <v>90</v>
+      </c>
+      <c r="I38" t="s">
+        <v>264</v>
+      </c>
+      <c r="J38" t="s">
+        <v>273</v>
+      </c>
+      <c r="K38" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" t="s">
+        <v>320</v>
+      </c>
+      <c r="E39" t="s">
+        <v>97</v>
+      </c>
+      <c r="I39" t="s">
+        <v>264</v>
+      </c>
+      <c r="J39" t="s">
+        <v>275</v>
+      </c>
+      <c r="K39" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>148</v>
+      </c>
+      <c r="E40" t="s">
+        <v>101</v>
+      </c>
+      <c r="I40" t="s">
+        <v>264</v>
+      </c>
+      <c r="J40" t="s">
+        <v>268</v>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>171</v>
+      </c>
+      <c r="B41" t="s">
+        <v>195</v>
+      </c>
+      <c r="C41" t="s">
+        <v>321</v>
+      </c>
+      <c r="E41" t="s">
+        <v>148</v>
+      </c>
+      <c r="I41" t="s">
+        <v>264</v>
+      </c>
+      <c r="J41" t="s">
+        <v>278</v>
+      </c>
+      <c r="K41" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>171</v>
+      </c>
+      <c r="B42" t="s">
+        <v>198</v>
+      </c>
+      <c r="C42" t="s">
+        <v>316</v>
+      </c>
+      <c r="E42" t="s">
+        <v>171</v>
+      </c>
+      <c r="I42" t="s">
+        <v>264</v>
+      </c>
+      <c r="J42" t="s">
+        <v>269</v>
+      </c>
+      <c r="K42" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>171</v>
+      </c>
+      <c r="B43" t="s">
+        <v>196</v>
+      </c>
+      <c r="C43" t="s">
+        <v>317</v>
+      </c>
+      <c r="E43" t="s">
+        <v>253</v>
+      </c>
+      <c r="I43" t="s">
+        <v>264</v>
+      </c>
+      <c r="J43" t="s">
+        <v>277</v>
+      </c>
+      <c r="K43">
+        <v>3386216</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>171</v>
+      </c>
+      <c r="B44" t="s">
+        <v>192</v>
+      </c>
+      <c r="C44" t="s">
+        <v>322</v>
+      </c>
+      <c r="E44" t="s">
+        <v>259</v>
+      </c>
+      <c r="I44" t="s">
+        <v>264</v>
+      </c>
+      <c r="J44" t="s">
+        <v>177</v>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>171</v>
+      </c>
+      <c r="B45" t="s">
+        <v>191</v>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>264</v>
+      </c>
+      <c r="I45" t="s">
+        <v>264</v>
+      </c>
+      <c r="J45" t="s">
+        <v>272</v>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>171</v>
+      </c>
+      <c r="B46" t="s">
+        <v>194</v>
+      </c>
+      <c r="I46" t="s">
+        <v>264</v>
+      </c>
+      <c r="J46" t="s">
+        <v>271</v>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>171</v>
+      </c>
+      <c r="B47" t="s">
+        <v>181</v>
+      </c>
+      <c r="C47" t="s">
+        <v>321</v>
+      </c>
+      <c r="I47" t="s">
+        <v>264</v>
+      </c>
+      <c r="J47" t="s">
+        <v>178</v>
+      </c>
+      <c r="K47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>171</v>
+      </c>
+      <c r="B48" t="s">
+        <v>189</v>
+      </c>
+      <c r="C48" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>264</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I7:I19">
+    <sortCondition ref="I7:I19"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>